--- a/input/reg_leaveParentalHome.xlsx
+++ b/input/reg_leaveParentalHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\data work\regression_estimates\reg files\revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B8834-A8A6-4416-9520-5702F428C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74523B61-A9BA-4493-ACAB-54D2075BA9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="868" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -331,21 +331,6 @@
   </si>
   <si>
     <t>Year - 2000</t>
-  </si>
-  <si>
-    <t>Les_c4_Student_L1</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -450,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -484,12 +469,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -511,13 +490,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -837,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E112B-B70B-4DAB-88B7-B697E60397AE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -853,7 +836,7 @@
       <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -884,10 +867,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -917,9 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D81919A-F4E9-4D7C-AB18-E854E8B112B9}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -950,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -1011,79 +992,79 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>-6.8067747397019948E-3</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="35">
         <v>1.1492942442257175E-3</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="35">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="35">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="35">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="35">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="35">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="35">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="35">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="35">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="35">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="35">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="35">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="35">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="35">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="35">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="35">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="35">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="V2" s="37">
+      <c r="V2" s="35">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="35">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="X2" s="37">
+      <c r="X2" s="35">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="Y2" s="37">
+      <c r="Y2" s="35">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="Z2" s="37">
+      <c r="Z2" s="35">
         <v>-1.0801715619727426E-3</v>
       </c>
     </row>
@@ -1091,79 +1072,79 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>-0.10558842443853134</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="35">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>2.3394593584254113E-5</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="35">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="35">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="35">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="35">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="35">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="35">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="35">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="35">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3" s="35">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="35">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="V3" s="37">
+      <c r="V3" s="35">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="35">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="35">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="Y3" s="37">
+      <c r="Y3" s="35">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="Z3" s="37">
+      <c r="Z3" s="35">
         <v>-6.0208795923674197E-4</v>
       </c>
     </row>
@@ -1171,79 +1152,79 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>7.9049100682915849E-4</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>2.3409625581894377E-9</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="35">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="35">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="35">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="35">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="35">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="35">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="35">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="35">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="35">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="35">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="35">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="35">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="35">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="35">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="35">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="35">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="35">
         <v>6.0585890089687133E-6</v>
       </c>
     </row>
@@ -1251,79 +1232,79 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>-0.16479130089181548</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="35">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="35">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="35">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="35">
         <v>1.6972757961557828E-3</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="35">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="35">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="35">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="35">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="35">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="35">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="35">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="35">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="35">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="35">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="35">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="Y5" s="37">
+      <c r="Y5" s="35">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="Z5" s="37">
+      <c r="Z5" s="35">
         <v>-1.7615030766409592E-3</v>
       </c>
     </row>
@@ -1331,159 +1312,159 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>-0.17258435050850424</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="35">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="35">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="35">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="35">
         <v>5.0078932599017809E-3</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="35">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="35">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="35">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="35">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="35">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="35">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="35">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="35">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="35">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="35">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="35">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="35">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="35">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="35">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="W6" s="37">
+      <c r="W6" s="35">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="35">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Y6" s="35">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="Z6" s="35">
         <v>-1.6584372967193678E-3</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="36">
+        <v>7</v>
+      </c>
+      <c r="B7" s="34">
         <v>-0.34945046234424243</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="35">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="35">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="35">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="35">
         <v>4.847031691691454E-3</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="35">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="35">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="35">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="35">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="35">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="35">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="35">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="35">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="35">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="35">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="35">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="35">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="V7" s="37">
+      <c r="V7" s="35">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="35">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="35">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="35">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="35">
         <v>-3.7520152554615495E-3</v>
       </c>
     </row>
@@ -1491,79 +1472,79 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>-0.22702865560954513</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="35">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="35">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="35">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="35">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <v>2.5460533481177277E-3</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="35">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="35">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="35">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="35">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="35">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="35">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="35">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="35">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="35">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="35">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="35">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="35">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="35">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="35">
         <v>-3.0755362080455515E-3</v>
       </c>
     </row>
@@ -1571,79 +1552,79 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>-0.27083512956290651</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="35">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="35">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="35">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="35">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="35">
         <v>3.720622798969995E-3</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="35">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="35">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="35">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="35">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="35">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="35">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="35">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="35">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="35">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="U9" s="37">
+      <c r="U9" s="35">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="35">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="35">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="35">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="35">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="35">
         <v>-2.9050721489296358E-3</v>
       </c>
     </row>
@@ -1651,79 +1632,79 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>-0.17026176404923529</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="35">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="35">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="35">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="35">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="35">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="35">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="35">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="35">
         <v>3.1228829551391262E-3</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="35">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="35">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="35">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="35">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="35">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="35">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="35">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="35">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="35">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="35">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="35">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="35">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="35">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="Y10" s="37">
+      <c r="Y10" s="35">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="Z10" s="35">
         <v>-2.9592258042419987E-3</v>
       </c>
     </row>
@@ -1731,79 +1712,79 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="34">
         <v>-0.16846738278247761</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="35">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="35">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="35">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="35">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="35">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="35">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="35">
         <v>3.3596505359605564E-3</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="35">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="35">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="35">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="35">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="35">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="35">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="35">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="U11" s="37">
+      <c r="U11" s="35">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="35">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="35">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="35">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="Y11" s="37">
+      <c r="Y11" s="35">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z11" s="35">
         <v>-2.3307078206306836E-3</v>
       </c>
     </row>
@@ -1811,79 +1792,79 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="34">
         <v>-0.36709645815733277</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="35">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="35">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="35">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="35">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="35">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="35">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="35">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="35">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="35">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="35">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="35">
         <v>4.3789125176147735E-3</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="35">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="35">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="35">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="35">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="35">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="35">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="35">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U12" s="35">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="35">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="35">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X12" s="35">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y12" s="35">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="Z12" s="37">
+      <c r="Z12" s="35">
         <v>-1.9311454073813439E-3</v>
       </c>
     </row>
@@ -1891,79 +1872,79 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="34">
         <v>0.10286563033215129</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="35">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="35">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="35">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="35">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="35">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="35">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="35">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="35">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="35">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="35">
         <v>8.053315978077083E-3</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="35">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="35">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="35">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="35">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="35">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="35">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="35">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="35">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="35">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="35">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="35">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="Z13" s="37">
+      <c r="Z13" s="35">
         <v>-1.7111282553254304E-3</v>
       </c>
     </row>
@@ -1971,79 +1952,79 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <v>0.11745311101442191</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="35">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="35">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="35">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="35">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="35">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="35">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="35">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="35">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="35">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="35">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="35">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="35">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="35">
         <v>5.0997093523694132E-3</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="35">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="35">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="35">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="35">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="35">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="35">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="35">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="35">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="35">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="35">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="Z14" s="37">
+      <c r="Z14" s="35">
         <v>-2.3897021229469899E-3</v>
       </c>
     </row>
@@ -2051,79 +2032,79 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="34">
         <v>0.10181829892832042</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="35">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="35">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="35">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="35">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="35">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="35">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="35">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="35">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="35">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="35">
         <v>6.0703667989536782E-3</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="35">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="35">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="35">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="35">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="U15" s="37">
+      <c r="U15" s="35">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="35">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="35">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="X15" s="37">
+      <c r="X15" s="35">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="Y15" s="37">
+      <c r="Y15" s="35">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="Z15" s="37">
+      <c r="Z15" s="35">
         <v>-2.7292144704395144E-3</v>
       </c>
     </row>
@@ -2131,79 +2112,79 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="34">
         <v>0.18767410683315672</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="35">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="35">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="35">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="35">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="35">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="35">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="35">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="35">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="35">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="35">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="35">
         <v>5.5731800296738533E-3</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="35">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="35">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="35">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="U16" s="37">
+      <c r="U16" s="35">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="V16" s="37">
+      <c r="V16" s="35">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="35">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="X16" s="37">
+      <c r="X16" s="35">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="Y16" s="37">
+      <c r="Y16" s="35">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="Z16" s="37">
+      <c r="Z16" s="35">
         <v>-1.8910120481082987E-3</v>
       </c>
     </row>
@@ -2211,79 +2192,79 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="34">
         <v>4.2467185371981971E-2</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="35">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="35">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="35">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="35">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="35">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="35">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="35">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="35">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="35">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="35">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="35">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="35">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="35">
         <v>5.7604665686365863E-3</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="35">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="T17" s="37">
+      <c r="T17" s="35">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="U17" s="37">
+      <c r="U17" s="35">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="V17" s="37">
+      <c r="V17" s="35">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="35">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="X17" s="37">
+      <c r="X17" s="35">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="Y17" s="37">
+      <c r="Y17" s="35">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="Z17" s="37">
+      <c r="Z17" s="35">
         <v>-1.7932735471288984E-3</v>
       </c>
     </row>
@@ -2291,79 +2272,79 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="34">
         <v>0.12725368587632629</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="35">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="35">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="35">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="35">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="35">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="35">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="35">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="35">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="35">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="35">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="35">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="35">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="35">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="35">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="35">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="S18" s="37">
+      <c r="S18" s="35">
         <v>6.196583617713765E-3</v>
       </c>
-      <c r="T18" s="37">
+      <c r="T18" s="35">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="35">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="V18" s="37">
+      <c r="V18" s="35">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="W18" s="37">
+      <c r="W18" s="35">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="X18" s="37">
+      <c r="X18" s="35">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="Y18" s="37">
+      <c r="Y18" s="35">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="Z18" s="37">
+      <c r="Z18" s="35">
         <v>-2.2989528984914817E-3</v>
       </c>
     </row>
@@ -2371,79 +2352,79 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="34">
         <v>-9.0055292869452228E-3</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="35">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="35">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="35">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="35">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="35">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="35">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="35">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="35">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="35">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="35">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="35">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="35">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="35">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="35">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="35">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="S19" s="37">
+      <c r="S19" s="35">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="35">
         <v>5.1687870551381824E-3</v>
       </c>
-      <c r="U19" s="37">
+      <c r="U19" s="35">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="35">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="W19" s="37">
+      <c r="W19" s="35">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="X19" s="37">
+      <c r="X19" s="35">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="Y19" s="37">
+      <c r="Y19" s="35">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="Z19" s="37">
+      <c r="Z19" s="35">
         <v>-1.9560411252458618E-3</v>
       </c>
     </row>
@@ -2451,79 +2432,79 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="34">
         <v>0.15157639802659198</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="35">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="35">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="35">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="35">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="35">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="35">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="35">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="35">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="35">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="35">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="35">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="35">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="35">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="35">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="35">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="35">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="T20" s="37">
+      <c r="T20" s="35">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="35">
         <v>5.4369062028731584E-3</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="35">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="W20" s="37">
+      <c r="W20" s="35">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="X20" s="37">
+      <c r="X20" s="35">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="Y20" s="37">
+      <c r="Y20" s="35">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="Z20" s="37">
+      <c r="Z20" s="35">
         <v>-2.1769829685138369E-3</v>
       </c>
     </row>
@@ -2531,79 +2512,79 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="34">
         <v>4.5581705058377033E-2</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="35">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="35">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="35">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="35">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="35">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="35">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="35">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="35">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="35">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="35">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="35">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="35">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="35">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="35">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="T21" s="37">
+      <c r="T21" s="35">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="U21" s="37">
+      <c r="U21" s="35">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="V21" s="37">
+      <c r="V21" s="35">
         <v>1.0917373043897321E-2</v>
       </c>
-      <c r="W21" s="37">
+      <c r="W21" s="35">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="X21" s="37">
+      <c r="X21" s="35">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="Y21" s="37">
+      <c r="Y21" s="35">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="Z21" s="37">
+      <c r="Z21" s="35">
         <v>-2.2422454206889038E-3</v>
       </c>
     </row>
@@ -2611,79 +2592,79 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="34">
         <v>5.1310080913150813E-2</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="35">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="35">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="35">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="35">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="35">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="35">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="35">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="35">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="35">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="35">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="35">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="35">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="35">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="35">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="35">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="35">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="35">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="T22" s="37">
+      <c r="T22" s="35">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="35">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="V22" s="37">
+      <c r="V22" s="35">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="W22" s="37">
+      <c r="W22" s="35">
         <v>6.763690411837834E-3</v>
       </c>
-      <c r="X22" s="37">
+      <c r="X22" s="35">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="Y22" s="37">
+      <c r="Y22" s="35">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="Z22" s="37">
+      <c r="Z22" s="35">
         <v>-1.5756222364408372E-3</v>
       </c>
     </row>
@@ -2691,79 +2672,79 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>-0.1013681885479784</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="35">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="35">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="35">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="35">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="35">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="35">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="35">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="35">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="35">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="35">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="35">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="35">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="35">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="35">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="T23" s="37">
+      <c r="T23" s="35">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="U23" s="37">
+      <c r="U23" s="35">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="V23" s="37">
+      <c r="V23" s="35">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="W23" s="37">
+      <c r="W23" s="35">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="X23" s="37">
+      <c r="X23" s="35">
         <v>1.4895391032936398E-2</v>
       </c>
-      <c r="Y23" s="37">
+      <c r="Y23" s="35">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="Z23" s="37">
+      <c r="Z23" s="35">
         <v>-3.3303785333436428E-3</v>
       </c>
     </row>
@@ -2771,79 +2752,79 @@
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="34">
         <v>-1.4957748763370496E-3</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="35">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="35">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="35">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="35">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="35">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="35">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="35">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="35">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="35">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="35">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="35">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="35">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="35">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="35">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="R24" s="37">
+      <c r="R24" s="35">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="S24" s="37">
+      <c r="S24" s="35">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="T24" s="37">
+      <c r="T24" s="35">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="U24" s="37">
+      <c r="U24" s="35">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="V24" s="37">
+      <c r="V24" s="35">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="W24" s="37">
+      <c r="W24" s="35">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="X24" s="37">
+      <c r="X24" s="35">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="Y24" s="37">
+      <c r="Y24" s="35">
         <v>3.088204904702271E-5</v>
       </c>
-      <c r="Z24" s="37">
+      <c r="Z24" s="35">
         <v>-5.3556460061943384E-4</v>
       </c>
     </row>
@@ -2851,79 +2832,79 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>0.79340391411361977</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>-1.0801715619727426E-3</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="35">
         <v>-6.0208795923674197E-4</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="35">
         <v>6.0585890089687133E-6</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="35">
         <v>-1.7615030766409592E-3</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="35">
         <v>-1.6584372967193678E-3</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <v>-3.7520152554615495E-3</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="35">
         <v>-3.0755362080455515E-3</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="35">
         <v>-2.9050721489296358E-3</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <v>-2.9592258042419987E-3</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="35">
         <v>-2.3307078206306836E-3</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="35">
         <v>-1.9311454073813439E-3</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="35">
         <v>-1.7111282553254304E-3</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="35">
         <v>-2.3897021229469899E-3</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="35">
         <v>-2.7292144704395144E-3</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="35">
         <v>-1.8910120481082987E-3</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="35">
         <v>-1.7932735471288984E-3</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="35">
         <v>-2.2989528984914817E-3</v>
       </c>
-      <c r="T25" s="37">
+      <c r="T25" s="35">
         <v>-1.9560411252458618E-3</v>
       </c>
-      <c r="U25" s="37">
+      <c r="U25" s="35">
         <v>-2.1769829685138369E-3</v>
       </c>
-      <c r="V25" s="37">
+      <c r="V25" s="35">
         <v>-2.2422454206889038E-3</v>
       </c>
-      <c r="W25" s="37">
+      <c r="W25" s="35">
         <v>-1.5756222364408372E-3</v>
       </c>
-      <c r="X25" s="37">
+      <c r="X25" s="35">
         <v>-3.3303785333436428E-3</v>
       </c>
-      <c r="Y25" s="37">
+      <c r="Y25" s="35">
         <v>-5.3556460061943384E-4</v>
       </c>
-      <c r="Z25" s="37">
+      <c r="Z25" s="35">
         <v>2.7043674582095521E-2</v>
       </c>
     </row>
@@ -2939,7 +2920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B4F255-0C05-4D89-9E66-A63B00CE7BED}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:AF27"/>
     </sheetView>
   </sheetViews>
@@ -2947,118 +2928,124 @@
   <cols>
     <col min="1" max="1" width="50.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="7" width="9.140625" style="2"/>
+    <col min="8" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="30" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="30">
         <v>-6.8068E-3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <v>3.3901199999999999E-2</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <v>0.84099999999999997</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="34">
         <v>-6.8067747397019948E-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="35">
         <v>1.1492942442257175E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="35">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="35">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="35">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="35">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="35">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="35">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="35">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="35">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="35">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="35">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="35">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="35">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="35">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="35">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="35">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="35">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="35">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="35">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="35">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="35">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="35">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="35">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="35">
         <v>-1.0801715619727426E-3</v>
       </c>
     </row>
@@ -3078,79 +3065,79 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>-0.10558842443853134</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="35">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="35">
         <v>2.3394593584254113E-5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="35">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="35">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="35">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="35">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="35">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="35">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="35">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="35">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="35">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="35">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="35">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="35">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="35">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="35">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="35">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="35">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="35">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="35">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="35">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="35">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="35">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="35">
         <v>-6.0208795923674197E-4</v>
       </c>
     </row>
@@ -3170,79 +3157,79 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>7.9049100682915849E-4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="35">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="35">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="35">
         <v>2.3409625581894377E-9</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="35">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="35">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="35">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="35">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="35">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="35">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="35">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="35">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="35">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="35">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="35">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="35">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="35">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="35">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="35">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="35">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="35">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="35">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="35">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="35">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="35">
         <v>6.0585890089687133E-6</v>
       </c>
     </row>
@@ -3250,85 +3237,85 @@
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>-0.16479130089181548</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="35">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="35">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="35">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="35">
         <v>1.6972757961557828E-3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="35">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="35">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="35">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="35">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="35">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="35">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="35">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="35">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="35">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="35">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="35">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="35">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="35">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="35">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="35">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="35">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="35">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="35">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="35">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="35">
         <v>-1.7615030766409592E-3</v>
       </c>
     </row>
@@ -3336,91 +3323,91 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>-0.1647913</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>4.1197999999999999E-2</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>-0.17258435050850424</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="35">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="35">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="35">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="35">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="35">
         <v>5.0078932599017809E-3</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="35">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="35">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="35">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="35">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="35">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="35">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="35">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="35">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="35">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="35">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="35">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="35">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="35">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="35">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="35">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="35">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="35">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="35">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="35">
         <v>-1.6584372967193678E-3</v>
       </c>
     </row>
@@ -3438,81 +3425,81 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="35">
+        <v>7</v>
+      </c>
+      <c r="H9" s="34">
         <v>-0.34945046234424243</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="35">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="35">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="35">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="35">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="35">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="35">
         <v>4.847031691691454E-3</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="35">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="35">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="35">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="35">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="35">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="35">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="35">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="35">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="35">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="35">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="35">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="35">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="35">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="35">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="35">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="35">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="35">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="35">
         <v>-3.7520152554615495E-3</v>
       </c>
     </row>
@@ -3520,85 +3507,85 @@
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>-0.22702865560954513</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="35">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="35">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="35">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="35">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="35">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="35">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="35">
         <v>2.5460533481177277E-3</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="35">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="35">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="35">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="35">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="35">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="35">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="35">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="35">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="35">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="35">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="35">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="35">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="35">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="35">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="35">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="35">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="35">
         <v>-3.0755362080455515E-3</v>
       </c>
     </row>
@@ -3606,91 +3593,91 @@
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>-0.3494505</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="26">
         <v>6.9620600000000005E-2</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>-0.27083512956290651</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="35">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="35">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="35">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="35">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="35">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="35">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="35">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="35">
         <v>3.720622798969995E-3</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="35">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="35">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="35">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="35">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="35">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="35">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="35">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="35">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="35">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="35">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="35">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="35">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="35">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="35">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="35">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="35">
         <v>-2.9050721489296358E-3</v>
       </c>
     </row>
@@ -3710,79 +3697,79 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>-0.17026176404923529</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="35">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="35">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="35">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="35">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="35">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="35">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="35">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="35">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="35">
         <v>3.1228829551391262E-3</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="35">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="35">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="35">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="35">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="35">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="35">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="35">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="35">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="35">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="35">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="35">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="35">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="35">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="35">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="35">
         <v>-2.9592258042419987E-3</v>
       </c>
     </row>
@@ -3796,79 +3783,79 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>-0.16846738278247761</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="35">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="35">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="35">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="35">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="35">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="35">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="35">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="35">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="35">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="35">
         <v>3.3596505359605564E-3</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="35">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="35">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="35">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="35">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="35">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="35">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="35">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="35">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="35">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="35">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="35">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="35">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="35">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="35">
         <v>-2.3307078206306836E-3</v>
       </c>
     </row>
@@ -3888,79 +3875,79 @@
       <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>-0.36709645815733277</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="35">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="35">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="35">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="35">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="35">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="35">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="35">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="35">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="35">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="35">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="35">
         <v>4.3789125176147735E-3</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="35">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="35">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="35">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="35">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="35">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="35">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="35">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="35">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="35">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="35">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="35">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="35">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="35">
         <v>-1.9311454073813439E-3</v>
       </c>
     </row>
@@ -3980,79 +3967,79 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>0.10286563033215129</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="35">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="35">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="35">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="35">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="35">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="35">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="35">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="35">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="35">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="35">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="35">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="35">
         <v>8.053315978077083E-3</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="35">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="35">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="35">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="35">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="35">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="35">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="35">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="35">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="35">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="35">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="35">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="35">
         <v>-1.7111282553254304E-3</v>
       </c>
     </row>
@@ -4072,79 +4059,79 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>0.11745311101442191</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="35">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="35">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="35">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="35">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="35">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="35">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="35">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="35">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="35">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="35">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="35">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="35">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="35">
         <v>5.0997093523694132E-3</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="35">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="35">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="35">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="35">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="35">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="35">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="35">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="35">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="35">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="35">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="35">
         <v>-2.3897021229469899E-3</v>
       </c>
     </row>
@@ -4164,79 +4151,79 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>0.10181829892832042</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="35">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="35">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="35">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="35">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="35">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="35">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="35">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="35">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="35">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="35">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="35">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="35">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="35">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="35">
         <v>6.0703667989536782E-3</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="35">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="35">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="35">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="35">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="35">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="35">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="35">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="35">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="35">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="35">
         <v>-2.7292144704395144E-3</v>
       </c>
     </row>
@@ -4250,79 +4237,79 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <v>0.18767410683315672</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="35">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="35">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="35">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="35">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="35">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="35">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="35">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="35">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="35">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="35">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="35">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="35">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="35">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="35">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="35">
         <v>5.5731800296738533E-3</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="35">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="35">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="35">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="35">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="35">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="35">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="35">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="35">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="35">
         <v>-1.8910120481082987E-3</v>
       </c>
     </row>
@@ -4342,79 +4329,79 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>4.2467185371981971E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="35">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="35">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="35">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="35">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="35">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="35">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="35">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="35">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="35">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="35">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="35">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="35">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="35">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="35">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="35">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="35">
         <v>5.7604665686365863E-3</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="35">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="35">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="35">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="35">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="35">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="35">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="35">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="35">
         <v>-1.7932735471288984E-3</v>
       </c>
     </row>
@@ -4434,79 +4421,79 @@
       <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <v>0.12725368587632629</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="35">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="35">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="35">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="35">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="35">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="35">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="35">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="35">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="35">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="35">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="35">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="35">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="35">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="35">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="35">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="35">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="35">
         <v>6.196583617713765E-3</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="35">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="35">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="35">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="35">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="35">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="35">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="35">
         <v>-2.2989528984914817E-3</v>
       </c>
     </row>
@@ -4526,79 +4513,79 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <v>-9.0055292869452228E-3</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="35">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="35">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="35">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="35">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="35">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="35">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="35">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="35">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="35">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="35">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="35">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="35">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="35">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="35">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="35">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="35">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="35">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="35">
         <v>5.1687870551381824E-3</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="35">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="35">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="35">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="35">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="35">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="35">
         <v>-1.9560411252458618E-3</v>
       </c>
     </row>
@@ -4618,79 +4605,79 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>0.15157639802659198</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="35">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="35">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="35">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="35">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="35">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="35">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="35">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="35">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="35">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="35">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="35">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="35">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="35">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="35">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="35">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="35">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="35">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="35">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="35">
         <v>5.4369062028731584E-3</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="35">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="35">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="35">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="35">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="35">
         <v>-2.1769829685138369E-3</v>
       </c>
     </row>
@@ -4710,79 +4697,79 @@
       <c r="G23" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>4.5581705058377033E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="35">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="35">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="35">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="35">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="35">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="35">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="35">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="35">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="35">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="35">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="35">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="35">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="35">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="35">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="35">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="35">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="35">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="35">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="35">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="35">
         <v>1.0917373043897321E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="35">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="35">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="35">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="35">
         <v>-2.2422454206889038E-3</v>
       </c>
     </row>
@@ -4802,79 +4789,79 @@
       <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>5.1310080913150813E-2</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="35">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="35">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="35">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="35">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="35">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="35">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="35">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="35">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="35">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="35">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="35">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="35">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="35">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="35">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="35">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="35">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="35">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="35">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="35">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="35">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="35">
         <v>6.763690411837834E-3</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="35">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="35">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="35">
         <v>-1.5756222364408372E-3</v>
       </c>
     </row>
@@ -4894,79 +4881,79 @@
       <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>-0.1013681885479784</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="35">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="35">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="35">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="35">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="35">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="35">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="35">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="35">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="35">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="35">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="35">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="35">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="35">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="35">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="35">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="35">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="35">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="35">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="35">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="35">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="35">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="35">
         <v>1.4895391032936398E-2</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="35">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="35">
         <v>-3.3303785333436428E-3</v>
       </c>
     </row>
@@ -4986,79 +4973,79 @@
       <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>-1.4957748763370496E-3</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="35">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="35">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="35">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="35">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="35">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="35">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="35">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="35">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="35">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="35">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="35">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="35">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="35">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="35">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="35">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="35">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="35">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="35">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="35">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="35">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="35">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="35">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="35">
         <v>3.088204904702271E-5</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="35">
         <v>-5.3556460061943384E-4</v>
       </c>
     </row>
@@ -5078,79 +5065,79 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="34">
         <v>0.79340391411361977</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="35">
         <v>-1.0801715619727426E-3</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="35">
         <v>-6.0208795923674197E-4</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="35">
         <v>6.0585890089687133E-6</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="35">
         <v>-1.7615030766409592E-3</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="35">
         <v>-1.6584372967193678E-3</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="35">
         <v>-3.7520152554615495E-3</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="35">
         <v>-3.0755362080455515E-3</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="35">
         <v>-2.9050721489296358E-3</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="35">
         <v>-2.9592258042419987E-3</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="35">
         <v>-2.3307078206306836E-3</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="35">
         <v>-1.9311454073813439E-3</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="35">
         <v>-1.7111282553254304E-3</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="35">
         <v>-2.3897021229469899E-3</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="35">
         <v>-2.7292144704395144E-3</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="35">
         <v>-1.8910120481082987E-3</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="35">
         <v>-1.7932735471288984E-3</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="35">
         <v>-2.2989528984914817E-3</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="35">
         <v>-1.9560411252458618E-3</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="35">
         <v>-2.1769829685138369E-3</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="35">
         <v>-2.2422454206889038E-3</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="35">
         <v>-1.5756222364408372E-3</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="35">
         <v>-3.3303785333436428E-3</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="35">
         <v>-5.3556460061943384E-4</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="35">
         <v>2.7043674582095521E-2</v>
       </c>
     </row>
@@ -5197,16 +5184,16 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="31">
         <v>0.79340390000000005</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="31">
         <v>0.1644496</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="31">
         <v>0</v>
       </c>
     </row>
@@ -5222,28 +5209,28 @@
       <c r="A33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="26">
         <v>8.6E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="28">
         <v>0.19</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
+      <c r="B37" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6462,31 +6449,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>

--- a/input/reg_leaveParentalHome.xlsx
+++ b/input/reg_leaveParentalHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\data work\regression_estimates\reg files\revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74523B61-A9BA-4493-ACAB-54D2075BA9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA639F-5476-4920-BB67-894FE6334D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,10 @@
     <sheet name="IT_P1a" sheetId="9" r:id="rId4"/>
     <sheet name="IT Left Parent Home" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -340,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,7 +427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -494,14 +486,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -562,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -668,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -822,14 +813,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -838,7 +829,7 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -846,7 +837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -854,7 +845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -862,11 +853,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
         <v>85</v>
       </c>
@@ -874,7 +865,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -883,11 +874,11 @@
         <v>Probit regression estimates for leaving the parental home - all non-student respondents living with a parent</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
@@ -898,17 +889,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D81919A-F4E9-4D7C-AB18-E854E8B112B9}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="26" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,1928 +979,1925 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>-6.8067747397019948E-3</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2">
         <v>1.1492942442257175E-3</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="S2" s="35">
+      <c r="S2">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="T2" s="35">
+      <c r="T2">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="V2" s="35">
+      <c r="V2">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="W2" s="35">
+      <c r="W2">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="X2" s="35">
+      <c r="X2">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="Y2" s="35">
+      <c r="Y2">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="Z2" s="35">
+      <c r="Z2">
         <v>-1.0801715619727426E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>-0.10558842443853134</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3">
         <v>2.3394593584254113E-5</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3">
         <v>-6.0208795923674197E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>7.9049100682915849E-4</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4">
         <v>2.3409625581894377E-9</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="Y4" s="35">
+      <c r="Y4">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="Z4">
         <v>6.0585890089687133E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>-0.16479130089181548</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5">
         <v>1.6972757961557828E-3</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5">
         <v>-1.7615030766409592E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>-0.17258435050850424</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6">
         <v>5.0078932599017809E-3</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6">
         <v>-1.6584372967193678E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>-0.34945046234424243</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7">
         <v>4.847031691691454E-3</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7">
         <v>-3.7520152554615495E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>-0.22702865560954513</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8">
         <v>2.5460533481177277E-3</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8">
         <v>-3.0755362080455515E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="32">
         <v>-0.27083512956290651</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9">
         <v>3.720622798969995E-3</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9">
         <v>-2.9050721489296358E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>-0.17026176404923529</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10">
         <v>3.1228829551391262E-3</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10">
         <v>-2.9592258042419987E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="32">
         <v>-0.16846738278247761</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11">
         <v>3.3596505359605564E-3</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="X11" s="35">
+      <c r="X11">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11">
         <v>-2.3307078206306836E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>-0.36709645815733277</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12">
         <v>4.3789125176147735E-3</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="P12" s="35">
+      <c r="P12">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="Y12" s="35">
+      <c r="Y12">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Z12">
         <v>-1.9311454073813439E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="32">
         <v>0.10286563033215129</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13">
         <v>8.053315978077083E-3</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="X13" s="35">
+      <c r="X13">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="Y13" s="35">
+      <c r="Y13">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13">
         <v>-1.7111282553254304E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>0.11745311101442191</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14">
         <v>5.0997093523694132E-3</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="V14" s="35">
+      <c r="V14">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="X14" s="35">
+      <c r="X14">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="Y14">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="Z14" s="35">
+      <c r="Z14">
         <v>-2.3897021229469899E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>0.10181829892832042</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15">
         <v>6.0703667989536782E-3</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="X15" s="35">
+      <c r="X15">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="Z15" s="35">
+      <c r="Z15">
         <v>-2.7292144704395144E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>0.18767410683315672</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16">
         <v>5.5731800296738533E-3</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="X16" s="35">
+      <c r="X16">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="Y16" s="35">
+      <c r="Y16">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="Z16" s="35">
+      <c r="Z16">
         <v>-1.8910120481082987E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="32">
         <v>4.2467185371981971E-2</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17">
         <v>5.7604665686365863E-3</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="X17" s="35">
+      <c r="X17">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="Y17" s="35">
+      <c r="Y17">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="Z17" s="35">
+      <c r="Z17">
         <v>-1.7932735471288984E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="32">
         <v>0.12725368587632629</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="N18" s="35">
+      <c r="N18">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18">
         <v>6.196583617713765E-3</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="V18" s="35">
+      <c r="V18">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="X18" s="35">
+      <c r="X18">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="Y18" s="35">
+      <c r="Y18">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="Z18" s="35">
+      <c r="Z18">
         <v>-2.2989528984914817E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="32">
         <v>-9.0055292869452228E-3</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19">
         <v>5.1687870551381824E-3</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="X19" s="35">
+      <c r="X19">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="Y19" s="35">
+      <c r="Y19">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="Z19" s="35">
+      <c r="Z19">
         <v>-1.9560411252458618E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="32">
         <v>0.15157639802659198</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20">
         <v>5.4369062028731584E-3</v>
       </c>
-      <c r="V20" s="35">
+      <c r="V20">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="X20" s="35">
+      <c r="X20">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="Y20">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="Z20" s="35">
+      <c r="Z20">
         <v>-2.1769829685138369E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="32">
         <v>4.5581705058377033E-2</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21">
         <v>1.0917373043897321E-2</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="X21" s="35">
+      <c r="X21">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="Y21" s="35">
+      <c r="Y21">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="Z21" s="35">
+      <c r="Z21">
         <v>-2.2422454206889038E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="32">
         <v>5.1310080913150813E-2</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22">
         <v>6.763690411837834E-3</v>
       </c>
-      <c r="X22" s="35">
+      <c r="X22">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="Y22" s="35">
+      <c r="Y22">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="Z22" s="35">
+      <c r="Z22">
         <v>-1.5756222364408372E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <v>-0.1013681885479784</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="V23" s="35">
+      <c r="V23">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="X23" s="35">
+      <c r="X23">
         <v>1.4895391032936398E-2</v>
       </c>
-      <c r="Y23" s="35">
+      <c r="Y23">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="Z23" s="35">
+      <c r="Z23">
         <v>-3.3303785333436428E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>-1.4957748763370496E-3</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="V24" s="35">
+      <c r="V24">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="W24" s="35">
+      <c r="W24">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="X24" s="35">
+      <c r="X24">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="Y24" s="35">
+      <c r="Y24">
         <v>3.088204904702271E-5</v>
       </c>
-      <c r="Z24" s="35">
+      <c r="Z24">
         <v>-5.3556460061943384E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="32">
         <v>0.79340391411361977</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25">
         <v>-1.0801715619727426E-3</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25">
         <v>-6.0208795923674197E-4</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25">
         <v>6.0585890089687133E-6</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25">
         <v>-1.7615030766409592E-3</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25">
         <v>-1.6584372967193678E-3</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25">
         <v>-3.7520152554615495E-3</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25">
         <v>-3.0755362080455515E-3</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25">
         <v>-2.9050721489296358E-3</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25">
         <v>-2.9592258042419987E-3</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25">
         <v>-2.3307078206306836E-3</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25">
         <v>-1.9311454073813439E-3</v>
       </c>
-      <c r="N25" s="35">
+      <c r="N25">
         <v>-1.7111282553254304E-3</v>
       </c>
-      <c r="O25" s="35">
+      <c r="O25">
         <v>-2.3897021229469899E-3</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25">
         <v>-2.7292144704395144E-3</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25">
         <v>-1.8910120481082987E-3</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25">
         <v>-1.7932735471288984E-3</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25">
         <v>-2.2989528984914817E-3</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25">
         <v>-1.9560411252458618E-3</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25">
         <v>-2.1769829685138369E-3</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25">
         <v>-2.2422454206889038E-3</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25">
         <v>-1.5756222364408372E-3</v>
       </c>
-      <c r="X25" s="35">
+      <c r="X25">
         <v>-3.3303785333436428E-3</v>
       </c>
-      <c r="Y25" s="35">
+      <c r="Y25">
         <v>-5.3556460061943384E-4</v>
       </c>
-      <c r="Z25" s="35">
+      <c r="Z25">
         <v>2.7043674582095521E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2924,7 +2912,7 @@
       <selection activeCell="G4" sqref="G4:AF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="2" customWidth="1"/>
@@ -2937,7 +2925,7 @@
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="14.45" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>96</v>
       </c>
@@ -2945,7 +2933,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
         <v>90</v>
@@ -2957,7 +2945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2973,83 +2961,83 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="32">
         <v>-6.8067747397019948E-3</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4">
         <v>1.1492942442257175E-3</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="Y4" s="35">
+      <c r="Y4">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="Z4">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="AB4" s="35">
+      <c r="AB4">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="AD4" s="35">
+      <c r="AD4">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="AE4" s="35">
+      <c r="AE4">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="AF4" s="35">
+      <c r="AF4">
         <v>-1.0801715619727426E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -3065,83 +3053,83 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="32">
         <v>-0.10558842443853134</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5">
         <v>2.002103889348846E-5</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5">
         <v>2.3394593584254113E-5</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="AD5" s="35">
+      <c r="AD5">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AF5">
         <v>-6.0208795923674197E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -3157,83 +3145,83 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>7.9049100682915849E-4</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6">
         <v>-2.4742823835983183E-7</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6">
         <v>-2.2698086314478921E-7</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6">
         <v>2.3409625581894377E-9</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="AA6" s="35">
+      <c r="AA6">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="AB6" s="35">
+      <c r="AB6">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="AC6" s="35">
+      <c r="AC6">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="AD6" s="35">
+      <c r="AD6">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="AE6">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="AF6" s="35">
+      <c r="AF6">
         <v>6.0585890089687133E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -3243,83 +3231,83 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="32">
         <v>-0.16479130089181548</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7">
         <v>-1.0627345039045974E-4</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7">
         <v>4.1332297050125698E-5</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <v>-3.4716310292849393E-7</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7">
         <v>1.6972757961557828E-3</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AA7">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="AB7" s="35">
+      <c r="AB7">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="AD7" s="35">
+      <c r="AD7">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="AE7">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="AF7" s="35">
+      <c r="AF7">
         <v>-1.7615030766409592E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -3335,83 +3323,83 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="32">
         <v>-0.17258435050850424</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8">
         <v>-1.0191962320604592E-4</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8">
         <v>2.8140445108146967E-5</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <v>-5.2893167272917788E-7</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8">
         <v>1.1329021575883663E-3</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8">
         <v>5.0078932599017809E-3</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AB8">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AE8">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="AF8" s="35">
+      <c r="AF8">
         <v>-1.6584372967193678E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -3427,83 +3415,83 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="32">
         <v>-0.34945046234424243</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9">
         <v>9.262780532960207E-5</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9">
         <v>1.4159425274701804E-4</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9">
         <v>-1.3392243603001477E-6</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9">
         <v>2.2462922531102847E-4</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9">
         <v>1.0950633597857958E-5</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9">
         <v>4.847031691691454E-3</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="AA9" s="35">
+      <c r="AA9">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AB9">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="AD9" s="35">
+      <c r="AD9">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9">
         <v>-3.7520152554615495E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -3513,83 +3501,83 @@
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="32">
         <v>-0.22702865560954513</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10">
         <v>2.5138676280140855E-4</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10">
         <v>8.8221795125570916E-5</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10">
         <v>-1.10003071445656E-6</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10">
         <v>-7.6966576573503834E-5</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10">
         <v>-3.9506199173144999E-4</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10">
         <v>9.3362216549996014E-4</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10">
         <v>2.5460533481177277E-3</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="AA10" s="35">
+      <c r="AA10">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB10">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="AC10" s="35">
+      <c r="AC10">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="AD10" s="35">
+      <c r="AD10">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="AE10" s="35">
+      <c r="AE10">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="AF10" s="35">
+      <c r="AF10">
         <v>-3.0755362080455515E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -3605,83 +3593,83 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="32">
         <v>-0.27083512956290651</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11">
         <v>2.9102574500089343E-4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11">
         <v>4.7051758557036982E-5</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11">
         <v>-6.4474594056131247E-7</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11">
         <v>-2.6137811029009703E-4</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11">
         <v>-4.6506799837181425E-4</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11">
         <v>6.8941414064859212E-4</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11">
         <v>1.1704245019037651E-3</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11">
         <v>3.720622798969995E-3</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="X11" s="35">
+      <c r="X11">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="AA11" s="35">
+      <c r="AA11">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AB11">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AC11">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="AD11" s="35">
+      <c r="AD11">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="AE11" s="35">
+      <c r="AE11">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="AF11" s="35">
+      <c r="AF11">
         <v>-2.9050721489296358E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -3697,83 +3685,83 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="32">
         <v>-0.17026176404923529</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12">
         <v>2.7728913995989278E-5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12">
         <v>4.2147864616613617E-5</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12">
         <v>-6.0976090729981931E-7</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12">
         <v>-4.6166738819139661E-5</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12">
         <v>-8.283435798752298E-5</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12">
         <v>6.7467076826380635E-4</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12">
         <v>1.1541293593764746E-3</v>
       </c>
-      <c r="P12" s="35">
+      <c r="P12">
         <v>2.0740002634324077E-3</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12">
         <v>3.1228829551391262E-3</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="Y12" s="35">
+      <c r="Y12">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Z12">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="AA12" s="35">
+      <c r="AA12">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="AB12" s="35">
+      <c r="AB12">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="AD12" s="35">
+      <c r="AD12">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="AE12" s="35">
+      <c r="AE12">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="AF12" s="35">
+      <c r="AF12">
         <v>-2.9592258042419987E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -3783,83 +3771,83 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="32">
         <v>-0.16846738278247761</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13">
         <v>5.0731962938271614E-5</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13">
         <v>3.4315472713902553E-6</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13">
         <v>-2.4573658370739286E-7</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13">
         <v>2.1632723979975275E-4</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13">
         <v>2.5173552633931751E-4</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13">
         <v>6.4253437859856564E-4</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13">
         <v>1.1652602208602305E-3</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13">
         <v>2.0279279926228131E-3</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13">
         <v>2.0666343657469036E-3</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13">
         <v>3.3596505359605564E-3</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="X13" s="35">
+      <c r="X13">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="Y13" s="35">
+      <c r="Y13">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="AA13" s="35">
+      <c r="AA13">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="AB13" s="35">
+      <c r="AB13">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="AC13" s="35">
+      <c r="AC13">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="AD13" s="35">
+      <c r="AD13">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="AE13" s="35">
+      <c r="AE13">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="AF13" s="35">
+      <c r="AF13">
         <v>-2.3307078206306836E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -3875,83 +3863,83 @@
       <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="32">
         <v>-0.36709645815733277</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14">
         <v>-5.0232637266984411E-5</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14">
         <v>-1.602397982019791E-5</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14">
         <v>-6.7356171365886386E-8</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14">
         <v>7.8779898028488488E-4</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14">
         <v>9.1916904503119672E-4</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14">
         <v>5.0675542054555824E-4</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14">
         <v>1.0140358476284105E-3</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14">
         <v>1.934064103403453E-3</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14">
         <v>2.0121596366138106E-3</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14">
         <v>2.2930853396809356E-3</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14">
         <v>4.3789125176147735E-3</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="V14" s="35">
+      <c r="V14">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="X14" s="35">
+      <c r="X14">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="Y14">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="Z14" s="35">
+      <c r="Z14">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="AA14" s="35">
+      <c r="AA14">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="AB14" s="35">
+      <c r="AB14">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="AC14" s="35">
+      <c r="AC14">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="AD14" s="35">
+      <c r="AD14">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="AE14" s="35">
+      <c r="AE14">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="AF14" s="35">
+      <c r="AF14">
         <v>-1.9311454073813439E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3967,83 +3955,83 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="32">
         <v>0.10286563033215129</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15">
         <v>1.7705684084023645E-4</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15">
         <v>-2.3594098331501949E-5</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15">
         <v>2.2910898159106989E-7</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15">
         <v>-3.4376497918458084E-4</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15">
         <v>-1.3344247420259017E-5</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15">
         <v>-4.6687032552923159E-4</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15">
         <v>-4.9437670223292213E-4</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15">
         <v>2.3910153755000876E-4</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15">
         <v>-1.966024387892412E-4</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15">
         <v>-2.4196947496345678E-4</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15">
         <v>-4.5701951707588376E-4</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15">
         <v>8.053315978077083E-3</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="X15" s="35">
+      <c r="X15">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="Z15" s="35">
+      <c r="Z15">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="AA15" s="35">
+      <c r="AA15">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="AB15" s="35">
+      <c r="AB15">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="AC15" s="35">
+      <c r="AC15">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="AD15" s="35">
+      <c r="AD15">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="AE15" s="35">
+      <c r="AE15">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="AF15" s="35">
+      <c r="AF15">
         <v>-1.7111282553254304E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -4059,83 +4047,83 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="32">
         <v>0.11745311101442191</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16">
         <v>1.7613134127030384E-4</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16">
         <v>-5.4048689108008322E-6</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16">
         <v>1.0813731683923952E-8</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16">
         <v>-3.8092786747594728E-4</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16">
         <v>-1.0596232877840541E-4</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16">
         <v>-2.5197770673334358E-4</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16">
         <v>-7.7356437570285015E-5</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16">
         <v>-2.1715670512754113E-4</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16">
         <v>-1.858229739887276E-4</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16">
         <v>-2.8673132892019385E-4</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16">
         <v>-5.1630207434799169E-4</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16">
         <v>2.8378709978439912E-3</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16">
         <v>5.0997093523694132E-3</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="X16" s="35">
+      <c r="X16">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="Y16" s="35">
+      <c r="Y16">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="Z16" s="35">
+      <c r="Z16">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="AA16" s="35">
+      <c r="AA16">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="AB16" s="35">
+      <c r="AB16">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="AC16" s="35">
+      <c r="AC16">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="AD16" s="35">
+      <c r="AD16">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="AE16" s="35">
+      <c r="AE16">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="AF16" s="35">
+      <c r="AF16">
         <v>-2.3897021229469899E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -4151,83 +4139,83 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="32">
         <v>0.10181829892832042</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17">
         <v>1.9705941555916309E-4</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17">
         <v>-6.7519249271549909E-7</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17">
         <v>-3.9286524875392371E-8</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17">
         <v>-3.3583080853363155E-4</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17">
         <v>-1.6358007892874221E-4</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17">
         <v>-1.6966059902011267E-4</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17">
         <v>1.1133284948131736E-4</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17">
         <v>4.5772679191251678E-4</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17">
         <v>1.8422207132915425E-4</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17">
         <v>8.1523250796629976E-5</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17">
         <v>-2.1565142612053152E-4</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17">
         <v>2.7969697826393486E-3</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17">
         <v>2.8341147955030124E-3</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17">
         <v>6.0703667989536782E-3</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="X17" s="35">
+      <c r="X17">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="Y17" s="35">
+      <c r="Y17">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="Z17" s="35">
+      <c r="Z17">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="AA17" s="35">
+      <c r="AA17">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="AB17" s="35">
+      <c r="AB17">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="AC17" s="35">
+      <c r="AC17">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="AD17" s="35">
+      <c r="AD17">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="AE17" s="35">
+      <c r="AE17">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="AF17" s="35">
+      <c r="AF17">
         <v>-2.7292144704395144E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -4237,83 +4225,83 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="32">
         <v>0.18767410683315672</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18">
         <v>1.9177024446588806E-4</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18">
         <v>-2.5812262298012211E-5</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18">
         <v>2.2526078806762822E-7</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18">
         <v>-4.7669308033721744E-4</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18">
         <v>-3.5282284198419204E-4</v>
       </c>
-      <c r="N18" s="35">
+      <c r="N18">
         <v>-3.8523909840577019E-4</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18">
         <v>-4.3926404982174382E-5</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18">
         <v>2.9329836441453891E-6</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18">
         <v>1.0591518185374722E-4</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18">
         <v>-1.3277794937025536E-4</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18">
         <v>-4.3914199739972167E-4</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18">
         <v>2.8628559662180562E-3</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18">
         <v>2.8690293517501094E-3</v>
       </c>
-      <c r="V18" s="35">
+      <c r="V18">
         <v>2.8335150689905997E-3</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18">
         <v>5.5731800296738533E-3</v>
       </c>
-      <c r="X18" s="35">
+      <c r="X18">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="Y18" s="35">
+      <c r="Y18">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="Z18" s="35">
+      <c r="Z18">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="AA18" s="35">
+      <c r="AA18">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="AB18" s="35">
+      <c r="AB18">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="AC18" s="35">
+      <c r="AC18">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="AD18" s="35">
+      <c r="AD18">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="AE18" s="35">
+      <c r="AE18">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="AF18" s="35">
+      <c r="AF18">
         <v>-1.8910120481082987E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -4329,83 +4317,83 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="32">
         <v>4.2467185371981971E-2</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19">
         <v>8.4003060579553081E-5</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19">
         <v>-1.6948363972434604E-5</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19">
         <v>1.6790959431457235E-7</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19">
         <v>-3.5693703701027201E-4</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19">
         <v>-1.8985631505663228E-4</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19">
         <v>-3.9936801839250127E-4</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19">
         <v>-1.2553563333643925E-4</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19">
         <v>-5.0952580004640395E-5</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19">
         <v>-1.7895244754244821E-4</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19">
         <v>-2.2184152894390188E-4</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19">
         <v>-4.8230705576010179E-4</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19">
         <v>2.8217572355270521E-3</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19">
         <v>2.8513059075872447E-3</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19">
         <v>2.8202686561787072E-3</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19">
         <v>2.8653438211069253E-3</v>
       </c>
-      <c r="X19" s="35">
+      <c r="X19">
         <v>5.7604665686365863E-3</v>
       </c>
-      <c r="Y19" s="35">
+      <c r="Y19">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="Z19" s="35">
+      <c r="Z19">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="AA19" s="35">
+      <c r="AA19">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="AB19" s="35">
+      <c r="AB19">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="AC19" s="35">
+      <c r="AC19">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="AD19" s="35">
+      <c r="AD19">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="AE19" s="35">
+      <c r="AE19">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="AF19" s="35">
+      <c r="AF19">
         <v>-1.7932735471288984E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -4421,83 +4409,83 @@
       <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="32">
         <v>0.12725368587632629</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20">
         <v>2.2851252804188371E-4</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20">
         <v>-2.4797599326922109E-5</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20">
         <v>1.763356215493871E-7</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20">
         <v>-3.0711107459205079E-4</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20">
         <v>-2.3262597767313031E-4</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20">
         <v>-3.9786346593067212E-4</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20">
         <v>-1.8433404318658793E-4</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20">
         <v>-1.0647509755605782E-4</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20">
         <v>-1.2077587408087002E-5</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20">
         <v>-5.0608290714682525E-6</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20">
         <v>-2.9926618217876916E-4</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20">
         <v>2.8786747514185709E-3</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20">
         <v>2.8746896709976131E-3</v>
       </c>
-      <c r="V20" s="35">
+      <c r="V20">
         <v>2.8609951873428347E-3</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20">
         <v>2.8861020229936809E-3</v>
       </c>
-      <c r="X20" s="35">
+      <c r="X20">
         <v>2.8771181609899043E-3</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="Y20">
         <v>6.196583617713765E-3</v>
       </c>
-      <c r="Z20" s="35">
+      <c r="Z20">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="AA20" s="35">
+      <c r="AA20">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="AB20" s="35">
+      <c r="AB20">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="AC20" s="35">
+      <c r="AC20">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="AD20" s="35">
+      <c r="AD20">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="AE20" s="35">
+      <c r="AE20">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="AF20" s="35">
+      <c r="AF20">
         <v>-2.2989528984914817E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -4513,83 +4501,83 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="32">
         <v>-9.0055292869452228E-3</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21">
         <v>1.0104310248630983E-4</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21">
         <v>-1.2828795102878095E-5</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21">
         <v>1.0219819907918306E-7</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21">
         <v>-2.7132313858766437E-4</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21">
         <v>-1.2559586097134938E-4</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21">
         <v>-3.3300422574904812E-4</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21">
         <v>-5.0419574758879982E-6</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21">
         <v>-4.31418668239731E-5</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21">
         <v>-2.3771101071771867E-4</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21">
         <v>-2.6051909240959589E-4</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21">
         <v>-3.4247581559552944E-4</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21">
         <v>2.8741602174440998E-3</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21">
         <v>2.8881261657464556E-3</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21">
         <v>2.8593322698792648E-3</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21">
         <v>2.8815459281958979E-3</v>
       </c>
-      <c r="X21" s="35">
+      <c r="X21">
         <v>2.8871963138575357E-3</v>
       </c>
-      <c r="Y21" s="35">
+      <c r="Y21">
         <v>2.8815658750716341E-3</v>
       </c>
-      <c r="Z21" s="35">
+      <c r="Z21">
         <v>5.1687870551381824E-3</v>
       </c>
-      <c r="AA21" s="35">
+      <c r="AA21">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="AB21" s="35">
+      <c r="AB21">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="AC21" s="35">
+      <c r="AC21">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="AD21" s="35">
+      <c r="AD21">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="AE21" s="35">
+      <c r="AE21">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="AF21" s="35">
+      <c r="AF21">
         <v>-1.9560411252458618E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -4605,83 +4593,83 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="32">
         <v>0.15157639802659198</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22">
         <v>1.843556125088827E-4</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22">
         <v>-9.3148198551880513E-6</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22">
         <v>2.3027164735383732E-8</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22">
         <v>-3.3864960765951277E-4</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22">
         <v>4.3773122230382719E-5</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22">
         <v>-4.9331800947663396E-5</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22">
         <v>-1.0747773218302848E-4</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22">
         <v>1.4044193544199569E-4</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22">
         <v>-1.1221195400755625E-4</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22">
         <v>-1.1133679116852663E-4</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22">
         <v>-3.9625356305696114E-4</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22">
         <v>2.8379734848795169E-3</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22">
         <v>2.8729150768190947E-3</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22">
         <v>2.8267615121877624E-3</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22">
         <v>2.8716756931684278E-3</v>
       </c>
-      <c r="X22" s="35">
+      <c r="X22">
         <v>2.85398814350399E-3</v>
       </c>
-      <c r="Y22" s="35">
+      <c r="Y22">
         <v>2.8734109793422001E-3</v>
       </c>
-      <c r="Z22" s="35">
+      <c r="Z22">
         <v>2.8987393580364364E-3</v>
       </c>
-      <c r="AA22" s="35">
+      <c r="AA22">
         <v>5.4369062028731584E-3</v>
       </c>
-      <c r="AB22" s="35">
+      <c r="AB22">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="AC22" s="35">
+      <c r="AC22">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="AD22" s="35">
+      <c r="AD22">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AE22">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="AF22" s="35">
+      <c r="AF22">
         <v>-2.1769829685138369E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -4697,83 +4685,83 @@
       <c r="G23" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="32">
         <v>4.5581705058377033E-2</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23">
         <v>7.4655203711592025E-5</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23">
         <v>-2.6105651966350083E-5</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23">
         <v>2.4427927473877428E-7</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23">
         <v>-3.9412174938930743E-4</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23">
         <v>-1.6528083496111106E-4</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23">
         <v>-3.6526070050425666E-4</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23">
         <v>-2.5635416956952295E-4</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23">
         <v>-8.6229615072654352E-5</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23">
         <v>-1.5401018571860485E-4</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23">
         <v>1.1506667738219969E-4</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23">
         <v>-4.7796857079505158E-4</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23">
         <v>2.7881695399420378E-3</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23">
         <v>2.8309830554766298E-3</v>
       </c>
-      <c r="V23" s="35">
+      <c r="V23">
         <v>2.7885538066778274E-3</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23">
         <v>2.8344412754919496E-3</v>
       </c>
-      <c r="X23" s="35">
+      <c r="X23">
         <v>2.8049700810372563E-3</v>
       </c>
-      <c r="Y23" s="35">
+      <c r="Y23">
         <v>2.8423732259538828E-3</v>
       </c>
-      <c r="Z23" s="35">
+      <c r="Z23">
         <v>2.8400638374925934E-3</v>
       </c>
-      <c r="AA23" s="35">
+      <c r="AA23">
         <v>2.8078913718384522E-3</v>
       </c>
-      <c r="AB23" s="35">
+      <c r="AB23">
         <v>1.0917373043897321E-2</v>
       </c>
-      <c r="AC23" s="35">
+      <c r="AC23">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="AD23" s="35">
+      <c r="AD23">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="AE23" s="35">
+      <c r="AE23">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="AF23" s="35">
+      <c r="AF23">
         <v>-2.2422454206889038E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -4789,83 +4777,83 @@
       <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="32">
         <v>5.1310080913150813E-2</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24">
         <v>1.1142297912248431E-4</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24">
         <v>-2.9957907461499036E-5</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24">
         <v>3.0864202364493403E-7</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24">
         <v>-3.7916012192828308E-4</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24">
         <v>-1.5242965773320898E-4</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24">
         <v>-5.120004110658763E-4</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24">
         <v>-2.9330572398606728E-4</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24">
         <v>-3.1113013637482301E-4</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24">
         <v>-3.5170826089572684E-4</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24">
         <v>-5.1416837217616333E-4</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24">
         <v>-6.5031096894278633E-4</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24">
         <v>2.8429278184275322E-3</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24">
         <v>2.8645514624655133E-3</v>
       </c>
-      <c r="V24" s="35">
+      <c r="V24">
         <v>2.826764064396658E-3</v>
       </c>
-      <c r="W24" s="35">
+      <c r="W24">
         <v>2.8760099007875311E-3</v>
       </c>
-      <c r="X24" s="35">
+      <c r="X24">
         <v>2.8660817312912475E-3</v>
       </c>
-      <c r="Y24" s="35">
+      <c r="Y24">
         <v>2.877266954183672E-3</v>
       </c>
-      <c r="Z24" s="35">
+      <c r="Z24">
         <v>2.8980869582248239E-3</v>
       </c>
-      <c r="AA24" s="35">
+      <c r="AA24">
         <v>2.8755028309577651E-3</v>
       </c>
-      <c r="AB24" s="35">
+      <c r="AB24">
         <v>2.8459444786463049E-3</v>
       </c>
-      <c r="AC24" s="35">
+      <c r="AC24">
         <v>6.763690411837834E-3</v>
       </c>
-      <c r="AD24" s="35">
+      <c r="AD24">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="AE24" s="35">
+      <c r="AE24">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="AF24" s="35">
+      <c r="AF24">
         <v>-1.5756222364408372E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -4881,83 +4869,83 @@
       <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="32">
         <v>-0.1013681885479784</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25">
         <v>2.8719309833098977E-4</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25">
         <v>2.9091011769304074E-5</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25">
         <v>-3.6749513280776137E-7</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25">
         <v>-3.0004639329296199E-4</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25">
         <v>7.6585718927275946E-4</v>
       </c>
-      <c r="N25" s="35">
+      <c r="N25">
         <v>1.4517086935505189E-4</v>
       </c>
-      <c r="O25" s="35">
+      <c r="O25">
         <v>-1.230386944935742E-6</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25">
         <v>-5.7595254338516468E-5</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25">
         <v>-1.4030889677611429E-4</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25">
         <v>2.5315302051513993E-5</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25">
         <v>-1.8406654499035231E-4</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25">
         <v>2.8083358552533069E-3</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25">
         <v>2.8681561049917325E-3</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25">
         <v>2.8387022049027417E-3</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25">
         <v>2.8800413405027933E-3</v>
       </c>
-      <c r="X25" s="35">
+      <c r="X25">
         <v>2.8352260328777779E-3</v>
       </c>
-      <c r="Y25" s="35">
+      <c r="Y25">
         <v>2.9207612450437796E-3</v>
       </c>
-      <c r="Z25" s="35">
+      <c r="Z25">
         <v>2.889235139184901E-3</v>
       </c>
-      <c r="AA25" s="35">
+      <c r="AA25">
         <v>2.8420163846259654E-3</v>
       </c>
-      <c r="AB25" s="35">
+      <c r="AB25">
         <v>2.8632407368249435E-3</v>
       </c>
-      <c r="AC25" s="35">
+      <c r="AC25">
         <v>2.8926018588528064E-3</v>
       </c>
-      <c r="AD25" s="35">
+      <c r="AD25">
         <v>1.4895391032936398E-2</v>
       </c>
-      <c r="AE25" s="35">
+      <c r="AE25">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="AF25" s="35">
+      <c r="AF25">
         <v>-3.3303785333436428E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -4973,83 +4961,83 @@
       <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="32">
         <v>-1.4957748763370496E-3</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26">
         <v>5.2608499023424025E-6</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26">
         <v>3.5687562734660423E-6</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26">
         <v>-4.5383307645594886E-8</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26">
         <v>1.3628795294844316E-6</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26">
         <v>3.3503977304474335E-5</v>
       </c>
-      <c r="N26" s="35">
+      <c r="N26">
         <v>-1.3098035103567936E-5</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26">
         <v>7.6011514108418829E-6</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26">
         <v>5.827372446840862E-7</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26">
         <v>1.47105618390223E-5</v>
       </c>
-      <c r="R26" s="35">
+      <c r="R26">
         <v>1.1768549046391712E-5</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26">
         <v>5.9516183955533495E-6</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26">
         <v>-1.6852169802198514E-5</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26">
         <v>6.3815752448134858E-6</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26">
         <v>-2.7827253005090256E-6</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W26">
         <v>-6.1010231420648988E-6</v>
       </c>
-      <c r="X26" s="35">
+      <c r="X26">
         <v>-1.9520696382752193E-5</v>
       </c>
-      <c r="Y26" s="35">
+      <c r="Y26">
         <v>1.4951905805148363E-5</v>
       </c>
-      <c r="Z26" s="35">
+      <c r="Z26">
         <v>-2.0449867454593596E-5</v>
       </c>
-      <c r="AA26" s="35">
+      <c r="AA26">
         <v>-1.2524298715107057E-5</v>
       </c>
-      <c r="AB26" s="35">
+      <c r="AB26">
         <v>2.1945675812360088E-5</v>
       </c>
-      <c r="AC26" s="35">
+      <c r="AC26">
         <v>-3.8307515306966515E-6</v>
       </c>
-      <c r="AD26" s="35">
+      <c r="AD26">
         <v>-8.7112976226370441E-8</v>
       </c>
-      <c r="AE26" s="35">
+      <c r="AE26">
         <v>3.088204904702271E-5</v>
       </c>
-      <c r="AF26" s="35">
+      <c r="AF26">
         <v>-5.3556460061943384E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -5065,83 +5053,83 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="32">
         <v>0.79340391411361977</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27">
         <v>-1.0801715619727426E-3</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27">
         <v>-6.0208795923674197E-4</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27">
         <v>6.0585890089687133E-6</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27">
         <v>-1.7615030766409592E-3</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27">
         <v>-1.6584372967193678E-3</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27">
         <v>-3.7520152554615495E-3</v>
       </c>
-      <c r="O27" s="35">
+      <c r="O27">
         <v>-3.0755362080455515E-3</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27">
         <v>-2.9050721489296358E-3</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27">
         <v>-2.9592258042419987E-3</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27">
         <v>-2.3307078206306836E-3</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27">
         <v>-1.9311454073813439E-3</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27">
         <v>-1.7111282553254304E-3</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27">
         <v>-2.3897021229469899E-3</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27">
         <v>-2.7292144704395144E-3</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27">
         <v>-1.8910120481082987E-3</v>
       </c>
-      <c r="X27" s="35">
+      <c r="X27">
         <v>-1.7932735471288984E-3</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27">
         <v>-2.2989528984914817E-3</v>
       </c>
-      <c r="Z27" s="35">
+      <c r="Z27">
         <v>-1.9560411252458618E-3</v>
       </c>
-      <c r="AA27" s="35">
+      <c r="AA27">
         <v>-2.1769829685138369E-3</v>
       </c>
-      <c r="AB27" s="35">
+      <c r="AB27">
         <v>-2.2422454206889038E-3</v>
       </c>
-      <c r="AC27" s="35">
+      <c r="AC27">
         <v>-1.5756222364408372E-3</v>
       </c>
-      <c r="AD27" s="35">
+      <c r="AD27">
         <v>-3.3303785333436428E-3</v>
       </c>
-      <c r="AE27" s="35">
+      <c r="AE27">
         <v>-5.3556460061943384E-4</v>
       </c>
-      <c r="AF27" s="35">
+      <c r="AF27">
         <v>2.7043674582095521E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -5155,7 +5143,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -5169,7 +5157,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30" s="5" t="s">
         <v>97</v>
       </c>
@@ -5183,7 +5171,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31" s="25" t="s">
         <v>26</v>
       </c>
@@ -5197,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -5205,7 +5193,7 @@
         <v>302744</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -5213,7 +5201,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
       <c r="A34" s="27" t="s">
         <v>66</v>
       </c>
@@ -5223,13 +5211,13 @@
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" thickTop="1">
       <c r="B35" s="26"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" s="26"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="B37" s="26"/>
     </row>
   </sheetData>
@@ -5245,12 +5233,12 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5374,7 +5362,7 @@
         <v>-1.5097504702189457E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5436,7 +5424,7 @@
         <v>-3.898741104433931E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5498,7 +5486,7 @@
         <v>3.6370580485554785E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5560,7 +5548,7 @@
         <v>-1.3715989419980201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5622,7 +5610,7 @@
         <v>-4.0353053065111277E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5684,7 +5672,7 @@
         <v>1.8761882532208174E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5746,7 +5734,7 @@
         <v>1.6932018179836916E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5808,7 +5796,7 @@
         <v>1.7593700651650002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5870,7 +5858,7 @@
         <v>2.2347916492205244E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5932,7 +5920,7 @@
         <v>7.7201312360870022E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5994,7 +5982,7 @@
         <v>4.3956311496460565E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6056,7 +6044,7 @@
         <v>-7.1977665743161445E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -6118,7 +6106,7 @@
         <v>6.1593904602827015E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -6180,7 +6168,7 @@
         <v>7.6404435940331701E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -6242,7 +6230,7 @@
         <v>-1.1356976710752698E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6304,7 +6292,7 @@
         <v>-2.6938073006806118E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6366,7 +6354,7 @@
         <v>-1.9647518104454642E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6441,41 +6429,41 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>29</v>
@@ -6496,7 +6484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -6507,7 +6495,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -6530,7 +6518,7 @@
         <v>0.50494485642957687</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -6553,7 +6541,7 @@
         <v>7.7307692287922433E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -6576,7 +6564,7 @@
         <v>-6.7301144707214585E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
@@ -6587,7 +6575,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -6610,7 +6598,7 @@
         <v>-2.6936560791370759E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -6633,7 +6621,7 @@
         <v>-0.11712286322184261</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -6644,7 +6632,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
@@ -6667,7 +6655,7 @@
         <v>0.27400985415474932</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="12" t="s">
         <v>44</v>
       </c>
@@ -6690,7 +6678,7 @@
         <v>-2.3115200059668078E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
@@ -6713,7 +6701,7 @@
         <v>-3.4790808012882812E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="30">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -6724,7 +6712,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
@@ -6747,7 +6735,7 @@
         <v>4.337217066431534E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -6770,7 +6758,7 @@
         <v>1.9976428036980763E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -6793,7 +6781,7 @@
         <v>-1.2968309815709719E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
@@ -6816,12 +6804,12 @@
         <v>-6.3537280469866536E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>69</v>
       </c>
@@ -6844,7 +6832,7 @@
         <v>-6.5450589557067007E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
         <v>70</v>
       </c>
@@ -6867,7 +6855,7 @@
         <v>1.8614344959092276E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
@@ -6890,7 +6878,7 @@
         <v>1.2879004010388356E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>72</v>
       </c>
@@ -6913,7 +6901,7 @@
         <v>-4.4238342286562191E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="13" t="s">
         <v>63</v>
       </c>
@@ -6936,7 +6924,7 @@
         <v>-3.1975539596653918E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="13" t="s">
         <v>26</v>
       </c>
@@ -6959,7 +6947,7 @@
         <v>85.349727026165652</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -6967,7 +6955,7 @@
         <v>217515</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
         <v>73</v>
       </c>
@@ -6975,7 +6963,7 @@
         <v>1563.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
@@ -6983,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
         <v>66</v>
       </c>
@@ -6991,7 +6979,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
         <v>67</v>
       </c>

--- a/input/reg_leaveParentalHome.xlsx
+++ b/input/reg_leaveParentalHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA639F-5476-4920-BB67-894FE6334D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B546F07-3036-40CC-81D2-FB352E54FEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,25 @@
     <sheet name="IT_P1a" sheetId="9" r:id="rId4"/>
     <sheet name="IT Left Parent Home" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -332,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,9 +521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,7 +561,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -659,7 +667,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,7 +809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,14 +821,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -829,7 +837,7 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -837,7 +845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -845,7 +853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -853,11 +861,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>85</v>
       </c>
@@ -865,7 +873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -874,11 +882,11 @@
         <v>Probit regression estimates for leaving the parental home - all non-student respondents living with a parent</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
@@ -891,15 +899,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D81919A-F4E9-4D7C-AB18-E854E8B112B9}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="26" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>-1.0801715619727426E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>-6.0208795923674197E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>6.0585890089687133E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>-1.7615030766409592E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>-1.6584372967193678E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1469,7 @@
         <v>-3.7520152554615495E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>-3.0755362080455515E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>-2.9050721489296358E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1699,7 +1709,7 @@
         <v>-2.9592258042419987E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>-2.3307078206306836E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>-1.9311454073813439E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>-1.7111282553254304E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>-2.3897021229469899E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>-2.7292144704395144E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>-1.8910120481082987E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2259,7 +2269,7 @@
         <v>-1.7932735471288984E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2339,7 +2349,7 @@
         <v>-2.2989528984914817E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2429,7 @@
         <v>-1.9560411252458618E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>-2.1769829685138369E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2579,7 +2589,7 @@
         <v>-2.2422454206889038E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>-1.5756222364408372E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>-3.3303785333436428E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>-5.3556460061943384E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2908,11 +2918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B4F255-0C05-4D89-9E66-A63B00CE7BED}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:AF27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="2" customWidth="1"/>
@@ -2925,7 +2935,7 @@
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.45" customHeight="1">
+    <row r="1" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>96</v>
       </c>
@@ -2933,7 +2943,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
         <v>90</v>
@@ -2945,7 +2955,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2958,86 +2968,34 @@
       <c r="D4" s="30">
         <v>0.84099999999999997</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="32">
-        <v>-6.8067747397019948E-3</v>
-      </c>
-      <c r="I4">
-        <v>1.1492942442257175E-3</v>
-      </c>
-      <c r="J4">
-        <v>2.002103889348846E-5</v>
-      </c>
-      <c r="K4">
-        <v>-2.4742823835983183E-7</v>
-      </c>
-      <c r="L4">
-        <v>-1.0627345039045974E-4</v>
-      </c>
-      <c r="M4">
-        <v>-1.0191962320604592E-4</v>
-      </c>
-      <c r="N4">
-        <v>9.262780532960207E-5</v>
-      </c>
-      <c r="O4">
-        <v>2.5138676280140855E-4</v>
-      </c>
-      <c r="P4">
-        <v>2.9102574500089343E-4</v>
-      </c>
-      <c r="Q4">
-        <v>2.7728913995989278E-5</v>
-      </c>
-      <c r="R4">
-        <v>5.0731962938271614E-5</v>
-      </c>
-      <c r="S4">
-        <v>-5.0232637266984411E-5</v>
-      </c>
-      <c r="T4">
-        <v>1.7705684084023645E-4</v>
-      </c>
-      <c r="U4">
-        <v>1.7613134127030384E-4</v>
-      </c>
-      <c r="V4">
-        <v>1.9705941555916309E-4</v>
-      </c>
-      <c r="W4">
-        <v>1.9177024446588806E-4</v>
-      </c>
-      <c r="X4">
-        <v>8.4003060579553081E-5</v>
-      </c>
-      <c r="Y4">
-        <v>2.2851252804188371E-4</v>
-      </c>
-      <c r="Z4">
-        <v>1.0104310248630983E-4</v>
-      </c>
-      <c r="AA4">
-        <v>1.843556125088827E-4</v>
-      </c>
-      <c r="AB4">
-        <v>7.4655203711592025E-5</v>
-      </c>
-      <c r="AC4">
-        <v>1.1142297912248431E-4</v>
-      </c>
-      <c r="AD4">
-        <v>2.8719309833098977E-4</v>
-      </c>
-      <c r="AE4">
-        <v>5.2608499023424025E-6</v>
-      </c>
-      <c r="AF4">
-        <v>-1.0801715619727426E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="G4"/>
+      <c r="H4" s="32"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -3050,86 +3008,34 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="32">
-        <v>-0.10558842443853134</v>
-      </c>
-      <c r="I5">
-        <v>2.002103889348846E-5</v>
-      </c>
-      <c r="J5">
-        <v>2.3394593584254113E-5</v>
-      </c>
-      <c r="K5">
-        <v>-2.2698086314478921E-7</v>
-      </c>
-      <c r="L5">
-        <v>4.1332297050125698E-5</v>
-      </c>
-      <c r="M5">
-        <v>2.8140445108146967E-5</v>
-      </c>
-      <c r="N5">
-        <v>1.4159425274701804E-4</v>
-      </c>
-      <c r="O5">
-        <v>8.8221795125570916E-5</v>
-      </c>
-      <c r="P5">
-        <v>4.7051758557036982E-5</v>
-      </c>
-      <c r="Q5">
-        <v>4.2147864616613617E-5</v>
-      </c>
-      <c r="R5">
-        <v>3.4315472713902553E-6</v>
-      </c>
-      <c r="S5">
-        <v>-1.602397982019791E-5</v>
-      </c>
-      <c r="T5">
-        <v>-2.3594098331501949E-5</v>
-      </c>
-      <c r="U5">
-        <v>-5.4048689108008322E-6</v>
-      </c>
-      <c r="V5">
-        <v>-6.7519249271549909E-7</v>
-      </c>
-      <c r="W5">
-        <v>-2.5812262298012211E-5</v>
-      </c>
-      <c r="X5">
-        <v>-1.6948363972434604E-5</v>
-      </c>
-      <c r="Y5">
-        <v>-2.4797599326922109E-5</v>
-      </c>
-      <c r="Z5">
-        <v>-1.2828795102878095E-5</v>
-      </c>
-      <c r="AA5">
-        <v>-9.3148198551880513E-6</v>
-      </c>
-      <c r="AB5">
-        <v>-2.6105651966350083E-5</v>
-      </c>
-      <c r="AC5">
-        <v>-2.9957907461499036E-5</v>
-      </c>
-      <c r="AD5">
-        <v>2.9091011769304074E-5</v>
-      </c>
-      <c r="AE5">
-        <v>3.5687562734660423E-6</v>
-      </c>
-      <c r="AF5">
-        <v>-6.0208795923674197E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="G5"/>
+      <c r="H5" s="32"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -3142,172 +3048,68 @@
       <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="32">
-        <v>7.9049100682915849E-4</v>
-      </c>
-      <c r="I6">
-        <v>-2.4742823835983183E-7</v>
-      </c>
-      <c r="J6">
-        <v>-2.2698086314478921E-7</v>
-      </c>
-      <c r="K6">
-        <v>2.3409625581894377E-9</v>
-      </c>
-      <c r="L6">
-        <v>-3.4716310292849393E-7</v>
-      </c>
-      <c r="M6">
-        <v>-5.2893167272917788E-7</v>
-      </c>
-      <c r="N6">
-        <v>-1.3392243603001477E-6</v>
-      </c>
-      <c r="O6">
-        <v>-1.10003071445656E-6</v>
-      </c>
-      <c r="P6">
-        <v>-6.4474594056131247E-7</v>
-      </c>
-      <c r="Q6">
-        <v>-6.0976090729981931E-7</v>
-      </c>
-      <c r="R6">
-        <v>-2.4573658370739286E-7</v>
-      </c>
-      <c r="S6">
-        <v>-6.7356171365886386E-8</v>
-      </c>
-      <c r="T6">
-        <v>2.2910898159106989E-7</v>
-      </c>
-      <c r="U6">
-        <v>1.0813731683923952E-8</v>
-      </c>
-      <c r="V6">
-        <v>-3.9286524875392371E-8</v>
-      </c>
-      <c r="W6">
-        <v>2.2526078806762822E-7</v>
-      </c>
-      <c r="X6">
-        <v>1.6790959431457235E-7</v>
-      </c>
-      <c r="Y6">
-        <v>1.763356215493871E-7</v>
-      </c>
-      <c r="Z6">
-        <v>1.0219819907918306E-7</v>
-      </c>
-      <c r="AA6">
-        <v>2.3027164735383732E-8</v>
-      </c>
-      <c r="AB6">
-        <v>2.4427927473877428E-7</v>
-      </c>
-      <c r="AC6">
-        <v>3.0864202364493403E-7</v>
-      </c>
-      <c r="AD6">
-        <v>-3.6749513280776137E-7</v>
-      </c>
-      <c r="AE6">
-        <v>-4.5383307645594886E-8</v>
-      </c>
-      <c r="AF6">
-        <v>6.0585890089687133E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="G6"/>
+      <c r="H6" s="32"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="32">
-        <v>-0.16479130089181548</v>
-      </c>
-      <c r="I7">
-        <v>-1.0627345039045974E-4</v>
-      </c>
-      <c r="J7">
-        <v>4.1332297050125698E-5</v>
-      </c>
-      <c r="K7">
-        <v>-3.4716310292849393E-7</v>
-      </c>
-      <c r="L7">
-        <v>1.6972757961557828E-3</v>
-      </c>
-      <c r="M7">
-        <v>1.1329021575883663E-3</v>
-      </c>
-      <c r="N7">
-        <v>2.2462922531102847E-4</v>
-      </c>
-      <c r="O7">
-        <v>-7.6966576573503834E-5</v>
-      </c>
-      <c r="P7">
-        <v>-2.6137811029009703E-4</v>
-      </c>
-      <c r="Q7">
-        <v>-4.6166738819139661E-5</v>
-      </c>
-      <c r="R7">
-        <v>2.1632723979975275E-4</v>
-      </c>
-      <c r="S7">
-        <v>7.8779898028488488E-4</v>
-      </c>
-      <c r="T7">
-        <v>-3.4376497918458084E-4</v>
-      </c>
-      <c r="U7">
-        <v>-3.8092786747594728E-4</v>
-      </c>
-      <c r="V7">
-        <v>-3.3583080853363155E-4</v>
-      </c>
-      <c r="W7">
-        <v>-4.7669308033721744E-4</v>
-      </c>
-      <c r="X7">
-        <v>-3.5693703701027201E-4</v>
-      </c>
-      <c r="Y7">
-        <v>-3.0711107459205079E-4</v>
-      </c>
-      <c r="Z7">
-        <v>-2.7132313858766437E-4</v>
-      </c>
-      <c r="AA7">
-        <v>-3.3864960765951277E-4</v>
-      </c>
-      <c r="AB7">
-        <v>-3.9412174938930743E-4</v>
-      </c>
-      <c r="AC7">
-        <v>-3.7916012192828308E-4</v>
-      </c>
-      <c r="AD7">
-        <v>-3.0004639329296199E-4</v>
-      </c>
-      <c r="AE7">
-        <v>1.3628795294844316E-6</v>
-      </c>
-      <c r="AF7">
-        <v>-1.7615030766409592E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="G7"/>
+      <c r="H7" s="32"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -3320,86 +3122,34 @@
       <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="32">
-        <v>-0.17258435050850424</v>
-      </c>
-      <c r="I8">
-        <v>-1.0191962320604592E-4</v>
-      </c>
-      <c r="J8">
-        <v>2.8140445108146967E-5</v>
-      </c>
-      <c r="K8">
-        <v>-5.2893167272917788E-7</v>
-      </c>
-      <c r="L8">
-        <v>1.1329021575883663E-3</v>
-      </c>
-      <c r="M8">
-        <v>5.0078932599017809E-3</v>
-      </c>
-      <c r="N8">
-        <v>1.0950633597857958E-5</v>
-      </c>
-      <c r="O8">
-        <v>-3.9506199173144999E-4</v>
-      </c>
-      <c r="P8">
-        <v>-4.6506799837181425E-4</v>
-      </c>
-      <c r="Q8">
-        <v>-8.283435798752298E-5</v>
-      </c>
-      <c r="R8">
-        <v>2.5173552633931751E-4</v>
-      </c>
-      <c r="S8">
-        <v>9.1916904503119672E-4</v>
-      </c>
-      <c r="T8">
-        <v>-1.3344247420259017E-5</v>
-      </c>
-      <c r="U8">
-        <v>-1.0596232877840541E-4</v>
-      </c>
-      <c r="V8">
-        <v>-1.6358007892874221E-4</v>
-      </c>
-      <c r="W8">
-        <v>-3.5282284198419204E-4</v>
-      </c>
-      <c r="X8">
-        <v>-1.8985631505663228E-4</v>
-      </c>
-      <c r="Y8">
-        <v>-2.3262597767313031E-4</v>
-      </c>
-      <c r="Z8">
-        <v>-1.2559586097134938E-4</v>
-      </c>
-      <c r="AA8">
-        <v>4.3773122230382719E-5</v>
-      </c>
-      <c r="AB8">
-        <v>-1.6528083496111106E-4</v>
-      </c>
-      <c r="AC8">
-        <v>-1.5242965773320898E-4</v>
-      </c>
-      <c r="AD8">
-        <v>7.6585718927275946E-4</v>
-      </c>
-      <c r="AE8">
-        <v>3.3503977304474335E-5</v>
-      </c>
-      <c r="AF8">
-        <v>-1.6584372967193678E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="G8"/>
+      <c r="H8" s="32"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -3412,172 +3162,68 @@
       <c r="D9" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="32">
-        <v>-0.34945046234424243</v>
-      </c>
-      <c r="I9">
-        <v>9.262780532960207E-5</v>
-      </c>
-      <c r="J9">
-        <v>1.4159425274701804E-4</v>
-      </c>
-      <c r="K9">
-        <v>-1.3392243603001477E-6</v>
-      </c>
-      <c r="L9">
-        <v>2.2462922531102847E-4</v>
-      </c>
-      <c r="M9">
-        <v>1.0950633597857958E-5</v>
-      </c>
-      <c r="N9">
-        <v>4.847031691691454E-3</v>
-      </c>
-      <c r="O9">
-        <v>9.3362216549996014E-4</v>
-      </c>
-      <c r="P9">
-        <v>6.8941414064859212E-4</v>
-      </c>
-      <c r="Q9">
-        <v>6.7467076826380635E-4</v>
-      </c>
-      <c r="R9">
-        <v>6.4253437859856564E-4</v>
-      </c>
-      <c r="S9">
-        <v>5.0675542054555824E-4</v>
-      </c>
-      <c r="T9">
-        <v>-4.6687032552923159E-4</v>
-      </c>
-      <c r="U9">
-        <v>-2.5197770673334358E-4</v>
-      </c>
-      <c r="V9">
-        <v>-1.6966059902011267E-4</v>
-      </c>
-      <c r="W9">
-        <v>-3.8523909840577019E-4</v>
-      </c>
-      <c r="X9">
-        <v>-3.9936801839250127E-4</v>
-      </c>
-      <c r="Y9">
-        <v>-3.9786346593067212E-4</v>
-      </c>
-      <c r="Z9">
-        <v>-3.3300422574904812E-4</v>
-      </c>
-      <c r="AA9">
-        <v>-4.9331800947663396E-5</v>
-      </c>
-      <c r="AB9">
-        <v>-3.6526070050425666E-4</v>
-      </c>
-      <c r="AC9">
-        <v>-5.120004110658763E-4</v>
-      </c>
-      <c r="AD9">
-        <v>1.4517086935505189E-4</v>
-      </c>
-      <c r="AE9">
-        <v>-1.3098035103567936E-5</v>
-      </c>
-      <c r="AF9">
-        <v>-3.7520152554615495E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="G9"/>
+      <c r="H9" s="32"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="32">
-        <v>-0.22702865560954513</v>
-      </c>
-      <c r="I10">
-        <v>2.5138676280140855E-4</v>
-      </c>
-      <c r="J10">
-        <v>8.8221795125570916E-5</v>
-      </c>
-      <c r="K10">
-        <v>-1.10003071445656E-6</v>
-      </c>
-      <c r="L10">
-        <v>-7.6966576573503834E-5</v>
-      </c>
-      <c r="M10">
-        <v>-3.9506199173144999E-4</v>
-      </c>
-      <c r="N10">
-        <v>9.3362216549996014E-4</v>
-      </c>
-      <c r="O10">
-        <v>2.5460533481177277E-3</v>
-      </c>
-      <c r="P10">
-        <v>1.1704245019037651E-3</v>
-      </c>
-      <c r="Q10">
-        <v>1.1541293593764746E-3</v>
-      </c>
-      <c r="R10">
-        <v>1.1652602208602305E-3</v>
-      </c>
-      <c r="S10">
-        <v>1.0140358476284105E-3</v>
-      </c>
-      <c r="T10">
-        <v>-4.9437670223292213E-4</v>
-      </c>
-      <c r="U10">
-        <v>-7.7356437570285015E-5</v>
-      </c>
-      <c r="V10">
-        <v>1.1133284948131736E-4</v>
-      </c>
-      <c r="W10">
-        <v>-4.3926404982174382E-5</v>
-      </c>
-      <c r="X10">
-        <v>-1.2553563333643925E-4</v>
-      </c>
-      <c r="Y10">
-        <v>-1.8433404318658793E-4</v>
-      </c>
-      <c r="Z10">
-        <v>-5.0419574758879982E-6</v>
-      </c>
-      <c r="AA10">
-        <v>-1.0747773218302848E-4</v>
-      </c>
-      <c r="AB10">
-        <v>-2.5635416956952295E-4</v>
-      </c>
-      <c r="AC10">
-        <v>-2.9330572398606728E-4</v>
-      </c>
-      <c r="AD10">
-        <v>-1.230386944935742E-6</v>
-      </c>
-      <c r="AE10">
-        <v>7.6011514108418829E-6</v>
-      </c>
-      <c r="AF10">
-        <v>-3.0755362080455515E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="G10"/>
+      <c r="H10" s="32"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -3590,86 +3236,34 @@
       <c r="D11" s="26">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="32">
-        <v>-0.27083512956290651</v>
-      </c>
-      <c r="I11">
-        <v>2.9102574500089343E-4</v>
-      </c>
-      <c r="J11">
-        <v>4.7051758557036982E-5</v>
-      </c>
-      <c r="K11">
-        <v>-6.4474594056131247E-7</v>
-      </c>
-      <c r="L11">
-        <v>-2.6137811029009703E-4</v>
-      </c>
-      <c r="M11">
-        <v>-4.6506799837181425E-4</v>
-      </c>
-      <c r="N11">
-        <v>6.8941414064859212E-4</v>
-      </c>
-      <c r="O11">
-        <v>1.1704245019037651E-3</v>
-      </c>
-      <c r="P11">
-        <v>3.720622798969995E-3</v>
-      </c>
-      <c r="Q11">
-        <v>2.0740002634324077E-3</v>
-      </c>
-      <c r="R11">
-        <v>2.0279279926228131E-3</v>
-      </c>
-      <c r="S11">
-        <v>1.934064103403453E-3</v>
-      </c>
-      <c r="T11">
-        <v>2.3910153755000876E-4</v>
-      </c>
-      <c r="U11">
-        <v>-2.1715670512754113E-4</v>
-      </c>
-      <c r="V11">
-        <v>4.5772679191251678E-4</v>
-      </c>
-      <c r="W11">
-        <v>2.9329836441453891E-6</v>
-      </c>
-      <c r="X11">
-        <v>-5.0952580004640395E-5</v>
-      </c>
-      <c r="Y11">
-        <v>-1.0647509755605782E-4</v>
-      </c>
-      <c r="Z11">
-        <v>-4.31418668239731E-5</v>
-      </c>
-      <c r="AA11">
-        <v>1.4044193544199569E-4</v>
-      </c>
-      <c r="AB11">
-        <v>-8.6229615072654352E-5</v>
-      </c>
-      <c r="AC11">
-        <v>-3.1113013637482301E-4</v>
-      </c>
-      <c r="AD11">
-        <v>-5.7595254338516468E-5</v>
-      </c>
-      <c r="AE11">
-        <v>5.827372446840862E-7</v>
-      </c>
-      <c r="AF11">
-        <v>-2.9050721489296358E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="G11"/>
+      <c r="H11" s="32"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -3682,172 +3276,68 @@
       <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="32">
-        <v>-0.17026176404923529</v>
-      </c>
-      <c r="I12">
-        <v>2.7728913995989278E-5</v>
-      </c>
-      <c r="J12">
-        <v>4.2147864616613617E-5</v>
-      </c>
-      <c r="K12">
-        <v>-6.0976090729981931E-7</v>
-      </c>
-      <c r="L12">
-        <v>-4.6166738819139661E-5</v>
-      </c>
-      <c r="M12">
-        <v>-8.283435798752298E-5</v>
-      </c>
-      <c r="N12">
-        <v>6.7467076826380635E-4</v>
-      </c>
-      <c r="O12">
-        <v>1.1541293593764746E-3</v>
-      </c>
-      <c r="P12">
-        <v>2.0740002634324077E-3</v>
-      </c>
-      <c r="Q12">
-        <v>3.1228829551391262E-3</v>
-      </c>
-      <c r="R12">
-        <v>2.0666343657469036E-3</v>
-      </c>
-      <c r="S12">
-        <v>2.0121596366138106E-3</v>
-      </c>
-      <c r="T12">
-        <v>-1.966024387892412E-4</v>
-      </c>
-      <c r="U12">
-        <v>-1.858229739887276E-4</v>
-      </c>
-      <c r="V12">
-        <v>1.8422207132915425E-4</v>
-      </c>
-      <c r="W12">
-        <v>1.0591518185374722E-4</v>
-      </c>
-      <c r="X12">
-        <v>-1.7895244754244821E-4</v>
-      </c>
-      <c r="Y12">
-        <v>-1.2077587408087002E-5</v>
-      </c>
-      <c r="Z12">
-        <v>-2.3771101071771867E-4</v>
-      </c>
-      <c r="AA12">
-        <v>-1.1221195400755625E-4</v>
-      </c>
-      <c r="AB12">
-        <v>-1.5401018571860485E-4</v>
-      </c>
-      <c r="AC12">
-        <v>-3.5170826089572684E-4</v>
-      </c>
-      <c r="AD12">
-        <v>-1.4030889677611429E-4</v>
-      </c>
-      <c r="AE12">
-        <v>1.47105618390223E-5</v>
-      </c>
-      <c r="AF12">
-        <v>-2.9592258042419987E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="G12"/>
+      <c r="H12" s="32"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="32">
-        <v>-0.16846738278247761</v>
-      </c>
-      <c r="I13">
-        <v>5.0731962938271614E-5</v>
-      </c>
-      <c r="J13">
-        <v>3.4315472713902553E-6</v>
-      </c>
-      <c r="K13">
-        <v>-2.4573658370739286E-7</v>
-      </c>
-      <c r="L13">
-        <v>2.1632723979975275E-4</v>
-      </c>
-      <c r="M13">
-        <v>2.5173552633931751E-4</v>
-      </c>
-      <c r="N13">
-        <v>6.4253437859856564E-4</v>
-      </c>
-      <c r="O13">
-        <v>1.1652602208602305E-3</v>
-      </c>
-      <c r="P13">
-        <v>2.0279279926228131E-3</v>
-      </c>
-      <c r="Q13">
-        <v>2.0666343657469036E-3</v>
-      </c>
-      <c r="R13">
-        <v>3.3596505359605564E-3</v>
-      </c>
-      <c r="S13">
-        <v>2.2930853396809356E-3</v>
-      </c>
-      <c r="T13">
-        <v>-2.4196947496345678E-4</v>
-      </c>
-      <c r="U13">
-        <v>-2.8673132892019385E-4</v>
-      </c>
-      <c r="V13">
-        <v>8.1523250796629976E-5</v>
-      </c>
-      <c r="W13">
-        <v>-1.3277794937025536E-4</v>
-      </c>
-      <c r="X13">
-        <v>-2.2184152894390188E-4</v>
-      </c>
-      <c r="Y13">
-        <v>-5.0608290714682525E-6</v>
-      </c>
-      <c r="Z13">
-        <v>-2.6051909240959589E-4</v>
-      </c>
-      <c r="AA13">
-        <v>-1.1133679116852663E-4</v>
-      </c>
-      <c r="AB13">
-        <v>1.1506667738219969E-4</v>
-      </c>
-      <c r="AC13">
-        <v>-5.1416837217616333E-4</v>
-      </c>
-      <c r="AD13">
-        <v>2.5315302051513993E-5</v>
-      </c>
-      <c r="AE13">
-        <v>1.1768549046391712E-5</v>
-      </c>
-      <c r="AF13">
-        <v>-2.3307078206306836E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="G13"/>
+      <c r="H13" s="32"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -3860,86 +3350,34 @@
       <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="32">
-        <v>-0.36709645815733277</v>
-      </c>
-      <c r="I14">
-        <v>-5.0232637266984411E-5</v>
-      </c>
-      <c r="J14">
-        <v>-1.602397982019791E-5</v>
-      </c>
-      <c r="K14">
-        <v>-6.7356171365886386E-8</v>
-      </c>
-      <c r="L14">
-        <v>7.8779898028488488E-4</v>
-      </c>
-      <c r="M14">
-        <v>9.1916904503119672E-4</v>
-      </c>
-      <c r="N14">
-        <v>5.0675542054555824E-4</v>
-      </c>
-      <c r="O14">
-        <v>1.0140358476284105E-3</v>
-      </c>
-      <c r="P14">
-        <v>1.934064103403453E-3</v>
-      </c>
-      <c r="Q14">
-        <v>2.0121596366138106E-3</v>
-      </c>
-      <c r="R14">
-        <v>2.2930853396809356E-3</v>
-      </c>
-      <c r="S14">
-        <v>4.3789125176147735E-3</v>
-      </c>
-      <c r="T14">
-        <v>-4.5701951707588376E-4</v>
-      </c>
-      <c r="U14">
-        <v>-5.1630207434799169E-4</v>
-      </c>
-      <c r="V14">
-        <v>-2.1565142612053152E-4</v>
-      </c>
-      <c r="W14">
-        <v>-4.3914199739972167E-4</v>
-      </c>
-      <c r="X14">
-        <v>-4.8230705576010179E-4</v>
-      </c>
-      <c r="Y14">
-        <v>-2.9926618217876916E-4</v>
-      </c>
-      <c r="Z14">
-        <v>-3.4247581559552944E-4</v>
-      </c>
-      <c r="AA14">
-        <v>-3.9625356305696114E-4</v>
-      </c>
-      <c r="AB14">
-        <v>-4.7796857079505158E-4</v>
-      </c>
-      <c r="AC14">
-        <v>-6.5031096894278633E-4</v>
-      </c>
-      <c r="AD14">
-        <v>-1.8406654499035231E-4</v>
-      </c>
-      <c r="AE14">
-        <v>5.9516183955533495E-6</v>
-      </c>
-      <c r="AF14">
-        <v>-1.9311454073813439E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="G14"/>
+      <c r="H14" s="32"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3952,86 +3390,34 @@
       <c r="D15" s="7">
         <v>2E-3</v>
       </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0.10286563033215129</v>
-      </c>
-      <c r="I15">
-        <v>1.7705684084023645E-4</v>
-      </c>
-      <c r="J15">
-        <v>-2.3594098331501949E-5</v>
-      </c>
-      <c r="K15">
-        <v>2.2910898159106989E-7</v>
-      </c>
-      <c r="L15">
-        <v>-3.4376497918458084E-4</v>
-      </c>
-      <c r="M15">
-        <v>-1.3344247420259017E-5</v>
-      </c>
-      <c r="N15">
-        <v>-4.6687032552923159E-4</v>
-      </c>
-      <c r="O15">
-        <v>-4.9437670223292213E-4</v>
-      </c>
-      <c r="P15">
-        <v>2.3910153755000876E-4</v>
-      </c>
-      <c r="Q15">
-        <v>-1.966024387892412E-4</v>
-      </c>
-      <c r="R15">
-        <v>-2.4196947496345678E-4</v>
-      </c>
-      <c r="S15">
-        <v>-4.5701951707588376E-4</v>
-      </c>
-      <c r="T15">
-        <v>8.053315978077083E-3</v>
-      </c>
-      <c r="U15">
-        <v>2.8378709978439912E-3</v>
-      </c>
-      <c r="V15">
-        <v>2.7969697826393486E-3</v>
-      </c>
-      <c r="W15">
-        <v>2.8628559662180562E-3</v>
-      </c>
-      <c r="X15">
-        <v>2.8217572355270521E-3</v>
-      </c>
-      <c r="Y15">
-        <v>2.8786747514185709E-3</v>
-      </c>
-      <c r="Z15">
-        <v>2.8741602174440998E-3</v>
-      </c>
-      <c r="AA15">
-        <v>2.8379734848795169E-3</v>
-      </c>
-      <c r="AB15">
-        <v>2.7881695399420378E-3</v>
-      </c>
-      <c r="AC15">
-        <v>2.8429278184275322E-3</v>
-      </c>
-      <c r="AD15">
-        <v>2.8083358552533069E-3</v>
-      </c>
-      <c r="AE15">
-        <v>-1.6852169802198514E-5</v>
-      </c>
-      <c r="AF15">
-        <v>-1.7111282553254304E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="G15"/>
+      <c r="H15" s="32"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -4044,86 +3430,34 @@
       <c r="D16" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0.11745311101442191</v>
-      </c>
-      <c r="I16">
-        <v>1.7613134127030384E-4</v>
-      </c>
-      <c r="J16">
-        <v>-5.4048689108008322E-6</v>
-      </c>
-      <c r="K16">
-        <v>1.0813731683923952E-8</v>
-      </c>
-      <c r="L16">
-        <v>-3.8092786747594728E-4</v>
-      </c>
-      <c r="M16">
-        <v>-1.0596232877840541E-4</v>
-      </c>
-      <c r="N16">
-        <v>-2.5197770673334358E-4</v>
-      </c>
-      <c r="O16">
-        <v>-7.7356437570285015E-5</v>
-      </c>
-      <c r="P16">
-        <v>-2.1715670512754113E-4</v>
-      </c>
-      <c r="Q16">
-        <v>-1.858229739887276E-4</v>
-      </c>
-      <c r="R16">
-        <v>-2.8673132892019385E-4</v>
-      </c>
-      <c r="S16">
-        <v>-5.1630207434799169E-4</v>
-      </c>
-      <c r="T16">
-        <v>2.8378709978439912E-3</v>
-      </c>
-      <c r="U16">
-        <v>5.0997093523694132E-3</v>
-      </c>
-      <c r="V16">
-        <v>2.8341147955030124E-3</v>
-      </c>
-      <c r="W16">
-        <v>2.8690293517501094E-3</v>
-      </c>
-      <c r="X16">
-        <v>2.8513059075872447E-3</v>
-      </c>
-      <c r="Y16">
-        <v>2.8746896709976131E-3</v>
-      </c>
-      <c r="Z16">
-        <v>2.8881261657464556E-3</v>
-      </c>
-      <c r="AA16">
-        <v>2.8729150768190947E-3</v>
-      </c>
-      <c r="AB16">
-        <v>2.8309830554766298E-3</v>
-      </c>
-      <c r="AC16">
-        <v>2.8645514624655133E-3</v>
-      </c>
-      <c r="AD16">
-        <v>2.8681561049917325E-3</v>
-      </c>
-      <c r="AE16">
-        <v>6.3815752448134858E-6</v>
-      </c>
-      <c r="AF16">
-        <v>-2.3897021229469899E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="G16"/>
+      <c r="H16" s="32"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -4136,172 +3470,68 @@
       <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0.10181829892832042</v>
-      </c>
-      <c r="I17">
-        <v>1.9705941555916309E-4</v>
-      </c>
-      <c r="J17">
-        <v>-6.7519249271549909E-7</v>
-      </c>
-      <c r="K17">
-        <v>-3.9286524875392371E-8</v>
-      </c>
-      <c r="L17">
-        <v>-3.3583080853363155E-4</v>
-      </c>
-      <c r="M17">
-        <v>-1.6358007892874221E-4</v>
-      </c>
-      <c r="N17">
-        <v>-1.6966059902011267E-4</v>
-      </c>
-      <c r="O17">
-        <v>1.1133284948131736E-4</v>
-      </c>
-      <c r="P17">
-        <v>4.5772679191251678E-4</v>
-      </c>
-      <c r="Q17">
-        <v>1.8422207132915425E-4</v>
-      </c>
-      <c r="R17">
-        <v>8.1523250796629976E-5</v>
-      </c>
-      <c r="S17">
-        <v>-2.1565142612053152E-4</v>
-      </c>
-      <c r="T17">
-        <v>2.7969697826393486E-3</v>
-      </c>
-      <c r="U17">
-        <v>2.8341147955030124E-3</v>
-      </c>
-      <c r="V17">
-        <v>6.0703667989536782E-3</v>
-      </c>
-      <c r="W17">
-        <v>2.8335150689905997E-3</v>
-      </c>
-      <c r="X17">
-        <v>2.8202686561787072E-3</v>
-      </c>
-      <c r="Y17">
-        <v>2.8609951873428347E-3</v>
-      </c>
-      <c r="Z17">
-        <v>2.8593322698792648E-3</v>
-      </c>
-      <c r="AA17">
-        <v>2.8267615121877624E-3</v>
-      </c>
-      <c r="AB17">
-        <v>2.7885538066778274E-3</v>
-      </c>
-      <c r="AC17">
-        <v>2.826764064396658E-3</v>
-      </c>
-      <c r="AD17">
-        <v>2.8387022049027417E-3</v>
-      </c>
-      <c r="AE17">
-        <v>-2.7827253005090256E-6</v>
-      </c>
-      <c r="AF17">
-        <v>-2.7292144704395144E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="G17"/>
+      <c r="H17" s="32"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="32">
-        <v>0.18767410683315672</v>
-      </c>
-      <c r="I18">
-        <v>1.9177024446588806E-4</v>
-      </c>
-      <c r="J18">
-        <v>-2.5812262298012211E-5</v>
-      </c>
-      <c r="K18">
-        <v>2.2526078806762822E-7</v>
-      </c>
-      <c r="L18">
-        <v>-4.7669308033721744E-4</v>
-      </c>
-      <c r="M18">
-        <v>-3.5282284198419204E-4</v>
-      </c>
-      <c r="N18">
-        <v>-3.8523909840577019E-4</v>
-      </c>
-      <c r="O18">
-        <v>-4.3926404982174382E-5</v>
-      </c>
-      <c r="P18">
-        <v>2.9329836441453891E-6</v>
-      </c>
-      <c r="Q18">
-        <v>1.0591518185374722E-4</v>
-      </c>
-      <c r="R18">
-        <v>-1.3277794937025536E-4</v>
-      </c>
-      <c r="S18">
-        <v>-4.3914199739972167E-4</v>
-      </c>
-      <c r="T18">
-        <v>2.8628559662180562E-3</v>
-      </c>
-      <c r="U18">
-        <v>2.8690293517501094E-3</v>
-      </c>
-      <c r="V18">
-        <v>2.8335150689905997E-3</v>
-      </c>
-      <c r="W18">
-        <v>5.5731800296738533E-3</v>
-      </c>
-      <c r="X18">
-        <v>2.8653438211069253E-3</v>
-      </c>
-      <c r="Y18">
-        <v>2.8861020229936809E-3</v>
-      </c>
-      <c r="Z18">
-        <v>2.8815459281958979E-3</v>
-      </c>
-      <c r="AA18">
-        <v>2.8716756931684278E-3</v>
-      </c>
-      <c r="AB18">
-        <v>2.8344412754919496E-3</v>
-      </c>
-      <c r="AC18">
-        <v>2.8760099007875311E-3</v>
-      </c>
-      <c r="AD18">
-        <v>2.8800413405027933E-3</v>
-      </c>
-      <c r="AE18">
-        <v>-6.1010231420648988E-6</v>
-      </c>
-      <c r="AF18">
-        <v>-1.8910120481082987E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="G18"/>
+      <c r="H18" s="32"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -4314,86 +3544,34 @@
       <c r="D19" s="7">
         <v>0.252</v>
       </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="32">
-        <v>4.2467185371981971E-2</v>
-      </c>
-      <c r="I19">
-        <v>8.4003060579553081E-5</v>
-      </c>
-      <c r="J19">
-        <v>-1.6948363972434604E-5</v>
-      </c>
-      <c r="K19">
-        <v>1.6790959431457235E-7</v>
-      </c>
-      <c r="L19">
-        <v>-3.5693703701027201E-4</v>
-      </c>
-      <c r="M19">
-        <v>-1.8985631505663228E-4</v>
-      </c>
-      <c r="N19">
-        <v>-3.9936801839250127E-4</v>
-      </c>
-      <c r="O19">
-        <v>-1.2553563333643925E-4</v>
-      </c>
-      <c r="P19">
-        <v>-5.0952580004640395E-5</v>
-      </c>
-      <c r="Q19">
-        <v>-1.7895244754244821E-4</v>
-      </c>
-      <c r="R19">
-        <v>-2.2184152894390188E-4</v>
-      </c>
-      <c r="S19">
-        <v>-4.8230705576010179E-4</v>
-      </c>
-      <c r="T19">
-        <v>2.8217572355270521E-3</v>
-      </c>
-      <c r="U19">
-        <v>2.8513059075872447E-3</v>
-      </c>
-      <c r="V19">
-        <v>2.8202686561787072E-3</v>
-      </c>
-      <c r="W19">
-        <v>2.8653438211069253E-3</v>
-      </c>
-      <c r="X19">
-        <v>5.7604665686365863E-3</v>
-      </c>
-      <c r="Y19">
-        <v>2.8771181609899043E-3</v>
-      </c>
-      <c r="Z19">
-        <v>2.8871963138575357E-3</v>
-      </c>
-      <c r="AA19">
-        <v>2.85398814350399E-3</v>
-      </c>
-      <c r="AB19">
-        <v>2.8049700810372563E-3</v>
-      </c>
-      <c r="AC19">
-        <v>2.8660817312912475E-3</v>
-      </c>
-      <c r="AD19">
-        <v>2.8352260328777779E-3</v>
-      </c>
-      <c r="AE19">
-        <v>-1.9520696382752193E-5</v>
-      </c>
-      <c r="AF19">
-        <v>-1.7932735471288984E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="G19"/>
+      <c r="H19" s="32"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -4406,86 +3584,34 @@
       <c r="D20" s="7">
         <v>0.1</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="32">
-        <v>0.12725368587632629</v>
-      </c>
-      <c r="I20">
-        <v>2.2851252804188371E-4</v>
-      </c>
-      <c r="J20">
-        <v>-2.4797599326922109E-5</v>
-      </c>
-      <c r="K20">
-        <v>1.763356215493871E-7</v>
-      </c>
-      <c r="L20">
-        <v>-3.0711107459205079E-4</v>
-      </c>
-      <c r="M20">
-        <v>-2.3262597767313031E-4</v>
-      </c>
-      <c r="N20">
-        <v>-3.9786346593067212E-4</v>
-      </c>
-      <c r="O20">
-        <v>-1.8433404318658793E-4</v>
-      </c>
-      <c r="P20">
-        <v>-1.0647509755605782E-4</v>
-      </c>
-      <c r="Q20">
-        <v>-1.2077587408087002E-5</v>
-      </c>
-      <c r="R20">
-        <v>-5.0608290714682525E-6</v>
-      </c>
-      <c r="S20">
-        <v>-2.9926618217876916E-4</v>
-      </c>
-      <c r="T20">
-        <v>2.8786747514185709E-3</v>
-      </c>
-      <c r="U20">
-        <v>2.8746896709976131E-3</v>
-      </c>
-      <c r="V20">
-        <v>2.8609951873428347E-3</v>
-      </c>
-      <c r="W20">
-        <v>2.8861020229936809E-3</v>
-      </c>
-      <c r="X20">
-        <v>2.8771181609899043E-3</v>
-      </c>
-      <c r="Y20">
-        <v>6.196583617713765E-3</v>
-      </c>
-      <c r="Z20">
-        <v>2.8815658750716341E-3</v>
-      </c>
-      <c r="AA20">
-        <v>2.8734109793422001E-3</v>
-      </c>
-      <c r="AB20">
-        <v>2.8423732259538828E-3</v>
-      </c>
-      <c r="AC20">
-        <v>2.877266954183672E-3</v>
-      </c>
-      <c r="AD20">
-        <v>2.9207612450437796E-3</v>
-      </c>
-      <c r="AE20">
-        <v>1.4951905805148363E-5</v>
-      </c>
-      <c r="AF20">
-        <v>-2.2989528984914817E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="G20"/>
+      <c r="H20" s="32"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -4498,86 +3624,34 @@
       <c r="D21" s="7">
         <v>0.191</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="32">
-        <v>-9.0055292869452228E-3</v>
-      </c>
-      <c r="I21">
-        <v>1.0104310248630983E-4</v>
-      </c>
-      <c r="J21">
-        <v>-1.2828795102878095E-5</v>
-      </c>
-      <c r="K21">
-        <v>1.0219819907918306E-7</v>
-      </c>
-      <c r="L21">
-        <v>-2.7132313858766437E-4</v>
-      </c>
-      <c r="M21">
-        <v>-1.2559586097134938E-4</v>
-      </c>
-      <c r="N21">
-        <v>-3.3300422574904812E-4</v>
-      </c>
-      <c r="O21">
-        <v>-5.0419574758879982E-6</v>
-      </c>
-      <c r="P21">
-        <v>-4.31418668239731E-5</v>
-      </c>
-      <c r="Q21">
-        <v>-2.3771101071771867E-4</v>
-      </c>
-      <c r="R21">
-        <v>-2.6051909240959589E-4</v>
-      </c>
-      <c r="S21">
-        <v>-3.4247581559552944E-4</v>
-      </c>
-      <c r="T21">
-        <v>2.8741602174440998E-3</v>
-      </c>
-      <c r="U21">
-        <v>2.8881261657464556E-3</v>
-      </c>
-      <c r="V21">
-        <v>2.8593322698792648E-3</v>
-      </c>
-      <c r="W21">
-        <v>2.8815459281958979E-3</v>
-      </c>
-      <c r="X21">
-        <v>2.8871963138575357E-3</v>
-      </c>
-      <c r="Y21">
-        <v>2.8815658750716341E-3</v>
-      </c>
-      <c r="Z21">
-        <v>5.1687870551381824E-3</v>
-      </c>
-      <c r="AA21">
-        <v>2.8987393580364364E-3</v>
-      </c>
-      <c r="AB21">
-        <v>2.8400638374925934E-3</v>
-      </c>
-      <c r="AC21">
-        <v>2.8980869582248239E-3</v>
-      </c>
-      <c r="AD21">
-        <v>2.889235139184901E-3</v>
-      </c>
-      <c r="AE21">
-        <v>-2.0449867454593596E-5</v>
-      </c>
-      <c r="AF21">
-        <v>-1.9560411252458618E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="G21"/>
+      <c r="H21" s="32"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -4590,86 +3664,34 @@
       <c r="D22" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="32">
-        <v>0.15157639802659198</v>
-      </c>
-      <c r="I22">
-        <v>1.843556125088827E-4</v>
-      </c>
-      <c r="J22">
-        <v>-9.3148198551880513E-6</v>
-      </c>
-      <c r="K22">
-        <v>2.3027164735383732E-8</v>
-      </c>
-      <c r="L22">
-        <v>-3.3864960765951277E-4</v>
-      </c>
-      <c r="M22">
-        <v>4.3773122230382719E-5</v>
-      </c>
-      <c r="N22">
-        <v>-4.9331800947663396E-5</v>
-      </c>
-      <c r="O22">
-        <v>-1.0747773218302848E-4</v>
-      </c>
-      <c r="P22">
-        <v>1.4044193544199569E-4</v>
-      </c>
-      <c r="Q22">
-        <v>-1.1221195400755625E-4</v>
-      </c>
-      <c r="R22">
-        <v>-1.1133679116852663E-4</v>
-      </c>
-      <c r="S22">
-        <v>-3.9625356305696114E-4</v>
-      </c>
-      <c r="T22">
-        <v>2.8379734848795169E-3</v>
-      </c>
-      <c r="U22">
-        <v>2.8729150768190947E-3</v>
-      </c>
-      <c r="V22">
-        <v>2.8267615121877624E-3</v>
-      </c>
-      <c r="W22">
-        <v>2.8716756931684278E-3</v>
-      </c>
-      <c r="X22">
-        <v>2.85398814350399E-3</v>
-      </c>
-      <c r="Y22">
-        <v>2.8734109793422001E-3</v>
-      </c>
-      <c r="Z22">
-        <v>2.8987393580364364E-3</v>
-      </c>
-      <c r="AA22">
-        <v>5.4369062028731584E-3</v>
-      </c>
-      <c r="AB22">
-        <v>2.8078913718384522E-3</v>
-      </c>
-      <c r="AC22">
-        <v>2.8755028309577651E-3</v>
-      </c>
-      <c r="AD22">
-        <v>2.8420163846259654E-3</v>
-      </c>
-      <c r="AE22">
-        <v>-1.2524298715107057E-5</v>
-      </c>
-      <c r="AF22">
-        <v>-2.1769829685138369E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="G22"/>
+      <c r="H22" s="32"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -4682,86 +3704,34 @@
       <c r="D23" s="7">
         <v>0.57599999999999996</v>
       </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="32">
-        <v>4.5581705058377033E-2</v>
-      </c>
-      <c r="I23">
-        <v>7.4655203711592025E-5</v>
-      </c>
-      <c r="J23">
-        <v>-2.6105651966350083E-5</v>
-      </c>
-      <c r="K23">
-        <v>2.4427927473877428E-7</v>
-      </c>
-      <c r="L23">
-        <v>-3.9412174938930743E-4</v>
-      </c>
-      <c r="M23">
-        <v>-1.6528083496111106E-4</v>
-      </c>
-      <c r="N23">
-        <v>-3.6526070050425666E-4</v>
-      </c>
-      <c r="O23">
-        <v>-2.5635416956952295E-4</v>
-      </c>
-      <c r="P23">
-        <v>-8.6229615072654352E-5</v>
-      </c>
-      <c r="Q23">
-        <v>-1.5401018571860485E-4</v>
-      </c>
-      <c r="R23">
-        <v>1.1506667738219969E-4</v>
-      </c>
-      <c r="S23">
-        <v>-4.7796857079505158E-4</v>
-      </c>
-      <c r="T23">
-        <v>2.7881695399420378E-3</v>
-      </c>
-      <c r="U23">
-        <v>2.8309830554766298E-3</v>
-      </c>
-      <c r="V23">
-        <v>2.7885538066778274E-3</v>
-      </c>
-      <c r="W23">
-        <v>2.8344412754919496E-3</v>
-      </c>
-      <c r="X23">
-        <v>2.8049700810372563E-3</v>
-      </c>
-      <c r="Y23">
-        <v>2.8423732259538828E-3</v>
-      </c>
-      <c r="Z23">
-        <v>2.8400638374925934E-3</v>
-      </c>
-      <c r="AA23">
-        <v>2.8078913718384522E-3</v>
-      </c>
-      <c r="AB23">
-        <v>1.0917373043897321E-2</v>
-      </c>
-      <c r="AC23">
-        <v>2.8459444786463049E-3</v>
-      </c>
-      <c r="AD23">
-        <v>2.8632407368249435E-3</v>
-      </c>
-      <c r="AE23">
-        <v>2.1945675812360088E-5</v>
-      </c>
-      <c r="AF23">
-        <v>-2.2422454206889038E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="G23"/>
+      <c r="H23" s="32"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -4774,86 +3744,34 @@
       <c r="D24" s="7">
         <v>0.106</v>
       </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="32">
-        <v>5.1310080913150813E-2</v>
-      </c>
-      <c r="I24">
-        <v>1.1142297912248431E-4</v>
-      </c>
-      <c r="J24">
-        <v>-2.9957907461499036E-5</v>
-      </c>
-      <c r="K24">
-        <v>3.0864202364493403E-7</v>
-      </c>
-      <c r="L24">
-        <v>-3.7916012192828308E-4</v>
-      </c>
-      <c r="M24">
-        <v>-1.5242965773320898E-4</v>
-      </c>
-      <c r="N24">
-        <v>-5.120004110658763E-4</v>
-      </c>
-      <c r="O24">
-        <v>-2.9330572398606728E-4</v>
-      </c>
-      <c r="P24">
-        <v>-3.1113013637482301E-4</v>
-      </c>
-      <c r="Q24">
-        <v>-3.5170826089572684E-4</v>
-      </c>
-      <c r="R24">
-        <v>-5.1416837217616333E-4</v>
-      </c>
-      <c r="S24">
-        <v>-6.5031096894278633E-4</v>
-      </c>
-      <c r="T24">
-        <v>2.8429278184275322E-3</v>
-      </c>
-      <c r="U24">
-        <v>2.8645514624655133E-3</v>
-      </c>
-      <c r="V24">
-        <v>2.826764064396658E-3</v>
-      </c>
-      <c r="W24">
-        <v>2.8760099007875311E-3</v>
-      </c>
-      <c r="X24">
-        <v>2.8660817312912475E-3</v>
-      </c>
-      <c r="Y24">
-        <v>2.877266954183672E-3</v>
-      </c>
-      <c r="Z24">
-        <v>2.8980869582248239E-3</v>
-      </c>
-      <c r="AA24">
-        <v>2.8755028309577651E-3</v>
-      </c>
-      <c r="AB24">
-        <v>2.8459444786463049E-3</v>
-      </c>
-      <c r="AC24">
-        <v>6.763690411837834E-3</v>
-      </c>
-      <c r="AD24">
-        <v>2.8926018588528064E-3</v>
-      </c>
-      <c r="AE24">
-        <v>-3.8307515306966515E-6</v>
-      </c>
-      <c r="AF24">
-        <v>-1.5756222364408372E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="G24"/>
+      <c r="H24" s="32"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -4866,86 +3784,34 @@
       <c r="D25" s="7">
         <v>0.9</v>
       </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="32">
-        <v>-0.1013681885479784</v>
-      </c>
-      <c r="I25">
-        <v>2.8719309833098977E-4</v>
-      </c>
-      <c r="J25">
-        <v>2.9091011769304074E-5</v>
-      </c>
-      <c r="K25">
-        <v>-3.6749513280776137E-7</v>
-      </c>
-      <c r="L25">
-        <v>-3.0004639329296199E-4</v>
-      </c>
-      <c r="M25">
-        <v>7.6585718927275946E-4</v>
-      </c>
-      <c r="N25">
-        <v>1.4517086935505189E-4</v>
-      </c>
-      <c r="O25">
-        <v>-1.230386944935742E-6</v>
-      </c>
-      <c r="P25">
-        <v>-5.7595254338516468E-5</v>
-      </c>
-      <c r="Q25">
-        <v>-1.4030889677611429E-4</v>
-      </c>
-      <c r="R25">
-        <v>2.5315302051513993E-5</v>
-      </c>
-      <c r="S25">
-        <v>-1.8406654499035231E-4</v>
-      </c>
-      <c r="T25">
-        <v>2.8083358552533069E-3</v>
-      </c>
-      <c r="U25">
-        <v>2.8681561049917325E-3</v>
-      </c>
-      <c r="V25">
-        <v>2.8387022049027417E-3</v>
-      </c>
-      <c r="W25">
-        <v>2.8800413405027933E-3</v>
-      </c>
-      <c r="X25">
-        <v>2.8352260328777779E-3</v>
-      </c>
-      <c r="Y25">
-        <v>2.9207612450437796E-3</v>
-      </c>
-      <c r="Z25">
-        <v>2.889235139184901E-3</v>
-      </c>
-      <c r="AA25">
-        <v>2.8420163846259654E-3</v>
-      </c>
-      <c r="AB25">
-        <v>2.8632407368249435E-3</v>
-      </c>
-      <c r="AC25">
-        <v>2.8926018588528064E-3</v>
-      </c>
-      <c r="AD25">
-        <v>1.4895391032936398E-2</v>
-      </c>
-      <c r="AE25">
-        <v>-8.7112976226370441E-8</v>
-      </c>
-      <c r="AF25">
-        <v>-3.3303785333436428E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="G25"/>
+      <c r="H25" s="32"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -4958,86 +3824,34 @@
       <c r="D26" s="7">
         <v>0.04</v>
       </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="32">
-        <v>-1.4957748763370496E-3</v>
-      </c>
-      <c r="I26">
-        <v>5.2608499023424025E-6</v>
-      </c>
-      <c r="J26">
-        <v>3.5687562734660423E-6</v>
-      </c>
-      <c r="K26">
-        <v>-4.5383307645594886E-8</v>
-      </c>
-      <c r="L26">
-        <v>1.3628795294844316E-6</v>
-      </c>
-      <c r="M26">
-        <v>3.3503977304474335E-5</v>
-      </c>
-      <c r="N26">
-        <v>-1.3098035103567936E-5</v>
-      </c>
-      <c r="O26">
-        <v>7.6011514108418829E-6</v>
-      </c>
-      <c r="P26">
-        <v>5.827372446840862E-7</v>
-      </c>
-      <c r="Q26">
-        <v>1.47105618390223E-5</v>
-      </c>
-      <c r="R26">
-        <v>1.1768549046391712E-5</v>
-      </c>
-      <c r="S26">
-        <v>5.9516183955533495E-6</v>
-      </c>
-      <c r="T26">
-        <v>-1.6852169802198514E-5</v>
-      </c>
-      <c r="U26">
-        <v>6.3815752448134858E-6</v>
-      </c>
-      <c r="V26">
-        <v>-2.7827253005090256E-6</v>
-      </c>
-      <c r="W26">
-        <v>-6.1010231420648988E-6</v>
-      </c>
-      <c r="X26">
-        <v>-1.9520696382752193E-5</v>
-      </c>
-      <c r="Y26">
-        <v>1.4951905805148363E-5</v>
-      </c>
-      <c r="Z26">
-        <v>-2.0449867454593596E-5</v>
-      </c>
-      <c r="AA26">
-        <v>-1.2524298715107057E-5</v>
-      </c>
-      <c r="AB26">
-        <v>2.1945675812360088E-5</v>
-      </c>
-      <c r="AC26">
-        <v>-3.8307515306966515E-6</v>
-      </c>
-      <c r="AD26">
-        <v>-8.7112976226370441E-8</v>
-      </c>
-      <c r="AE26">
-        <v>3.088204904702271E-5</v>
-      </c>
-      <c r="AF26">
-        <v>-5.3556460061943384E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="G26"/>
+      <c r="H26" s="32"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -5050,86 +3864,34 @@
       <c r="D27" s="7">
         <v>0.66300000000000003</v>
       </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="32">
-        <v>0.79340391411361977</v>
-      </c>
-      <c r="I27">
-        <v>-1.0801715619727426E-3</v>
-      </c>
-      <c r="J27">
-        <v>-6.0208795923674197E-4</v>
-      </c>
-      <c r="K27">
-        <v>6.0585890089687133E-6</v>
-      </c>
-      <c r="L27">
-        <v>-1.7615030766409592E-3</v>
-      </c>
-      <c r="M27">
-        <v>-1.6584372967193678E-3</v>
-      </c>
-      <c r="N27">
-        <v>-3.7520152554615495E-3</v>
-      </c>
-      <c r="O27">
-        <v>-3.0755362080455515E-3</v>
-      </c>
-      <c r="P27">
-        <v>-2.9050721489296358E-3</v>
-      </c>
-      <c r="Q27">
-        <v>-2.9592258042419987E-3</v>
-      </c>
-      <c r="R27">
-        <v>-2.3307078206306836E-3</v>
-      </c>
-      <c r="S27">
-        <v>-1.9311454073813439E-3</v>
-      </c>
-      <c r="T27">
-        <v>-1.7111282553254304E-3</v>
-      </c>
-      <c r="U27">
-        <v>-2.3897021229469899E-3</v>
-      </c>
-      <c r="V27">
-        <v>-2.7292144704395144E-3</v>
-      </c>
-      <c r="W27">
-        <v>-1.8910120481082987E-3</v>
-      </c>
-      <c r="X27">
-        <v>-1.7932735471288984E-3</v>
-      </c>
-      <c r="Y27">
-        <v>-2.2989528984914817E-3</v>
-      </c>
-      <c r="Z27">
-        <v>-1.9560411252458618E-3</v>
-      </c>
-      <c r="AA27">
-        <v>-2.1769829685138369E-3</v>
-      </c>
-      <c r="AB27">
-        <v>-2.2422454206889038E-3</v>
-      </c>
-      <c r="AC27">
-        <v>-1.5756222364408372E-3</v>
-      </c>
-      <c r="AD27">
-        <v>-3.3303785333436428E-3</v>
-      </c>
-      <c r="AE27">
-        <v>-5.3556460061943384E-4</v>
-      </c>
-      <c r="AF27">
-        <v>2.7043674582095521E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="G27"/>
+      <c r="H27" s="32"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -5143,7 +3905,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -5157,7 +3919,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>97</v>
       </c>
@@ -5171,7 +3933,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>26</v>
       </c>
@@ -5185,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -5193,7 +3955,7 @@
         <v>302744</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -5201,7 +3963,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>66</v>
       </c>
@@ -5211,13 +3973,13 @@
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickTop="1">
+    <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
     </row>
   </sheetData>
@@ -5233,12 +3995,12 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5300,7 +4062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +4124,7 @@
         <v>-1.5097504702189457E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5424,7 +4186,7 @@
         <v>-3.898741104433931E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5486,7 +4248,7 @@
         <v>3.6370580485554785E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5548,7 +4310,7 @@
         <v>-1.3715989419980201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +4372,7 @@
         <v>-4.0353053065111277E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5672,7 +4434,7 @@
         <v>1.8761882532208174E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5734,7 +4496,7 @@
         <v>1.6932018179836916E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5796,7 +4558,7 @@
         <v>1.7593700651650002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5858,7 +4620,7 @@
         <v>2.2347916492205244E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5920,7 +4682,7 @@
         <v>7.7201312360870022E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5982,7 +4744,7 @@
         <v>4.3956311496460565E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6044,7 +4806,7 @@
         <v>-7.1977665743161445E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -6106,7 +4868,7 @@
         <v>6.1593904602827015E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -6168,7 +4930,7 @@
         <v>7.6404435940331701E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -6230,7 +4992,7 @@
         <v>-1.1356976710752698E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6292,7 +5054,7 @@
         <v>-2.6938073006806118E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6354,7 +5116,7 @@
         <v>-1.9647518104454642E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6429,14 +5191,14 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
@@ -6455,7 +5217,7 @@
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
@@ -6463,7 +5225,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>29</v>
@@ -6484,7 +5246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -6495,7 +5257,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -6518,7 +5280,7 @@
         <v>0.50494485642957687</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -6541,7 +5303,7 @@
         <v>7.7307692287922433E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -6564,7 +5326,7 @@
         <v>-6.7301144707214585E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
@@ -6575,7 +5337,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -6598,7 +5360,7 @@
         <v>-2.6936560791370759E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -6621,7 +5383,7 @@
         <v>-0.11712286322184261</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -6632,7 +5394,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
@@ -6655,7 +5417,7 @@
         <v>0.27400985415474932</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>44</v>
       </c>
@@ -6678,7 +5440,7 @@
         <v>-2.3115200059668078E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
@@ -6701,7 +5463,7 @@
         <v>-3.4790808012882812E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30">
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -6712,7 +5474,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
@@ -6735,7 +5497,7 @@
         <v>4.337217066431534E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -6758,7 +5520,7 @@
         <v>1.9976428036980763E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -6781,7 +5543,7 @@
         <v>-1.2968309815709719E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
@@ -6804,12 +5566,12 @@
         <v>-6.3537280469866536E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>69</v>
       </c>
@@ -6832,7 +5594,7 @@
         <v>-6.5450589557067007E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>70</v>
       </c>
@@ -6855,7 +5617,7 @@
         <v>1.8614344959092276E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
@@ -6878,7 +5640,7 @@
         <v>1.2879004010388356E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>72</v>
       </c>
@@ -6901,7 +5663,7 @@
         <v>-4.4238342286562191E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>63</v>
       </c>
@@ -6924,7 +5686,7 @@
         <v>-3.1975539596653918E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>26</v>
       </c>
@@ -6947,7 +5709,7 @@
         <v>85.349727026165652</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -6955,7 +5717,7 @@
         <v>217515</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>73</v>
       </c>
@@ -6963,7 +5725,7 @@
         <v>1563.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>65</v>
       </c>
@@ -6971,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>66</v>
       </c>
@@ -6979,7 +5741,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>67</v>
       </c>
